--- a/jee_latest.xlsx
+++ b/jee_latest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="688">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -1623,15 +1623,6 @@
     <t>Cloud</t>
   </si>
   <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>ravi</t>
-  </si>
-  <si>
     <t>Dev 1</t>
   </si>
   <si>
@@ -1711,9 +1702,6 @@
   </si>
   <si>
     <t>********************************************************************************************************************************************************************</t>
-  </si>
-  <si>
-    <t>madhu</t>
   </si>
   <si>
     <t>js</t>
@@ -2239,28 +2227,43 @@
     </r>
   </si>
   <si>
-    <t>js.123</t>
-  </si>
-  <si>
     <t>html.123</t>
   </si>
   <si>
-    <t>push &amp; commit</t>
-  </si>
-  <si>
-    <t>rejected</t>
-  </si>
-  <si>
-    <t>java.123</t>
-  </si>
-  <si>
-    <t>code change to java</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>code change</t>
+    <t>Bina</t>
+  </si>
+  <si>
+    <t>prabesh</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>java.123213</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>Sanju</t>
+  </si>
+  <si>
+    <t>js.111</t>
+  </si>
+  <si>
+    <t>jdbc.111</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Fetch upstream</t>
+  </si>
+  <si>
+    <t>puh to upstream</t>
   </si>
 </sst>
 </file>
@@ -3073,6 +3076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3199,12 +3203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3235,6 +3233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3243,6 +3244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3304,6 +3308,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3319,15 +3332,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3340,7 +3344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6720,10 +6723,10 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="202" t="s">
+      <c r="L40" s="203" t="s">
         <v>405</v>
       </c>
-      <c r="M40" s="202"/>
+      <c r="M40" s="203"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -8606,18 +8609,18 @@
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
       <c r="D3" s="4"/>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="167" t="s">
+      <c r="F3" s="169"/>
+      <c r="G3" s="168" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="169"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="28" t="s">
@@ -8895,20 +8898,20 @@
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1">
       <c r="D16" s="8"/>
-      <c r="E16" s="182" t="s">
+      <c r="E16" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="182" t="s">
+      <c r="F16" s="184"/>
+      <c r="G16" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="I16" s="182" t="s">
+      <c r="H16" s="184"/>
+      <c r="I16" s="183" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="183"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="184"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -8938,12 +8941,12 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
       <c r="O19" s="40" t="s">
         <v>185</v>
       </c>
@@ -9243,11 +9246,11 @@
     <row r="42" spans="3:16" ht="15.75" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="G42" s="203" t="s">
+      <c r="G42" s="204" t="s">
         <v>497</v>
       </c>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="3:16">
@@ -9387,7 +9390,7 @@
       <c r="C73" s="4"/>
       <c r="D73" s="6"/>
       <c r="F73" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="6"/>
@@ -9396,7 +9399,7 @@
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
       <c r="F74" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="6"/>
@@ -9405,35 +9408,35 @@
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="G75" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="3:14">
       <c r="C76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H76" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="3:14">
       <c r="C77" s="132" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D77" s="132"/>
       <c r="E77" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H77" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M77" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="3:14">
@@ -9446,7 +9449,7 @@
       <c r="C79" s="32"/>
       <c r="D79" s="133"/>
       <c r="H79" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M79" s="133"/>
       <c r="N79" s="32"/>
@@ -9477,11 +9480,11 @@
       <c r="E83" s="133"/>
       <c r="F83" s="133"/>
       <c r="G83" s="133" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H83" s="133"/>
       <c r="I83" s="133" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J83" s="133"/>
       <c r="K83" s="133"/>
@@ -9497,11 +9500,11 @@
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
       <c r="G84" s="32" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H84" s="32"/>
       <c r="I84" s="32" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J84" s="32"/>
       <c r="K84" s="32"/>
@@ -9511,50 +9514,50 @@
     </row>
     <row r="86" spans="3:14">
       <c r="F86" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I86" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="3:14">
       <c r="I87" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="3:14">
       <c r="I88" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="3:14">
       <c r="I89" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="3:14">
       <c r="I90" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="3:14">
       <c r="I91" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="3:14">
       <c r="I92" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="3:14">
       <c r="I93" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" spans="3:14">
       <c r="I94" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="3:14">
@@ -9562,37 +9565,37 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -9799,7 +9802,7 @@
   <dimension ref="A2:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9807,227 +9810,214 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F3" t="s">
-        <v>503</v>
+        <v>676</v>
       </c>
       <c r="J3" t="s">
         <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J4" t="s">
         <v>501</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>679</v>
+        <v>530</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>683</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
         <v>502</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>679</v>
+        <v>530</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="F6" s="24" t="s">
-        <v>570</v>
+        <v>681</v>
+      </c>
+      <c r="G6" t="s">
+        <v>566</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="F7" s="24" t="s">
         <v>684</v>
       </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="F7" s="24"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
-      <c r="M7" t="s">
-        <v>681</v>
-      </c>
-      <c r="O7" s="255">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="F8" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="G8" t="s">
-        <v>685</v>
-      </c>
+      <c r="O7" s="166"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="F8" s="24"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
-      <c r="M8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1">
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="I9" s="8" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+      <c r="F10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M10" t="s">
+        <v>682</v>
+      </c>
+      <c r="P10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="F11" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="P11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+      <c r="F12" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="M9" t="s">
-        <v>516</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N12" s="9" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F10" t="s">
-        <v>504</v>
-      </c>
-      <c r="M10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="F11" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="M11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F12" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="P12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="P13" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F14" t="s">
-        <v>681</v>
-      </c>
-      <c r="G14" s="255">
-        <v>0.375</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="F13" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="G13" t="s">
+        <v>518</v>
+      </c>
+      <c r="P13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="G14" s="166"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="F18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I18" s="123" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="3:14">
       <c r="F19" s="124" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L19" s="124" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="125">
         <v>43908</v>
       </c>
-      <c r="D20" s="207" t="s">
-        <v>511</v>
-      </c>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
+      <c r="D20" s="208" t="s">
+        <v>508</v>
+      </c>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
       <c r="I20" s="38" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
@@ -10036,71 +10026,71 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="209">
+      <c r="C21" s="219">
         <v>43909</v>
       </c>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
       <c r="I21" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208" t="s">
+        <v>511</v>
+      </c>
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="219"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="223" t="s">
+        <v>512</v>
+      </c>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="126" t="s">
         <v>513</v>
-      </c>
-      <c r="J21" s="207"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207" t="s">
-        <v>514</v>
-      </c>
-      <c r="M21" s="207"/>
-      <c r="N21" s="207"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="209"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="208" t="s">
-        <v>515</v>
-      </c>
-      <c r="J22" s="207"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="126" t="s">
-        <v>516</v>
       </c>
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="209"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="207"/>
-      <c r="L23" s="207" t="s">
-        <v>517</v>
-      </c>
-      <c r="M23" s="207"/>
-      <c r="N23" s="207"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208" t="s">
+        <v>514</v>
+      </c>
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="209"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="207"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
       <c r="L24" s="127" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -10109,15 +10099,15 @@
       <c r="C25" s="125">
         <v>43910</v>
       </c>
-      <c r="D25" s="207" t="s">
-        <v>518</v>
-      </c>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
+      <c r="D25" s="208" t="s">
+        <v>515</v>
+      </c>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
       <c r="I25" s="38" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -10129,66 +10119,66 @@
       <c r="C26" s="125">
         <v>43911</v>
       </c>
-      <c r="D26" s="210"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="217" t="s">
-        <v>515</v>
-      </c>
-      <c r="J26" s="210"/>
-      <c r="K26" s="212"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="216" t="s">
+        <v>512</v>
+      </c>
+      <c r="J26" s="209"/>
+      <c r="K26" s="211"/>
       <c r="L26" s="126" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="207" t="s">
-        <v>520</v>
-      </c>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="208" t="s">
+        <v>517</v>
+      </c>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="214"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="213"/>
       <c r="L28" s="127" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="216"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="215"/>
       <c r="L29" s="128" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -10209,40 +10199,40 @@
     </row>
     <row r="31" spans="3:14">
       <c r="F31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="E32" s="130"/>
       <c r="F32" s="124" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L32" s="124" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="C33" s="125">
         <v>43908</v>
       </c>
-      <c r="D33" s="207" t="s">
-        <v>511</v>
-      </c>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
+      <c r="D33" s="208" t="s">
+        <v>508</v>
+      </c>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
       <c r="I33" s="38" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
@@ -10251,67 +10241,67 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="209">
+      <c r="C34" s="219">
         <v>43909</v>
       </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
       <c r="I34" s="220"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="207"/>
-      <c r="L34" s="207" t="s">
-        <v>514</v>
-      </c>
-      <c r="M34" s="207"/>
-      <c r="N34" s="207"/>
+      <c r="J34" s="208"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="208" t="s">
+        <v>511</v>
+      </c>
+      <c r="M34" s="208"/>
+      <c r="N34" s="208"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="209"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
       <c r="I35" s="221"/>
-      <c r="J35" s="207"/>
-      <c r="K35" s="207"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
       <c r="L35" s="126" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="209"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
       <c r="I36" s="221"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="207"/>
-      <c r="L36" s="207" t="s">
-        <v>517</v>
-      </c>
-      <c r="M36" s="207"/>
-      <c r="N36" s="207"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="208" t="s">
+        <v>514</v>
+      </c>
+      <c r="M36" s="208"/>
+      <c r="N36" s="208"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="209"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
       <c r="I37" s="222"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="207"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="208"/>
       <c r="L37" s="127" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -10320,15 +10310,15 @@
       <c r="C38" s="125">
         <v>43910</v>
       </c>
-      <c r="D38" s="207" t="s">
-        <v>518</v>
-      </c>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
+      <c r="D38" s="208" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
       <c r="I38" s="38" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
@@ -10340,66 +10330,66 @@
       <c r="C39" s="125">
         <v>43911</v>
       </c>
-      <c r="D39" s="210"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="212"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="211"/>
       <c r="L39" s="126" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="207" t="s">
-        <v>520</v>
-      </c>
-      <c r="M40" s="207"/>
-      <c r="N40" s="207"/>
+      <c r="D40" s="212"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="208" t="s">
+        <v>517</v>
+      </c>
+      <c r="M40" s="208"/>
+      <c r="N40" s="208"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="214"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="214"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="212"/>
+      <c r="K41" s="213"/>
       <c r="L41" s="127" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="215"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="202"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="216"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="203"/>
+      <c r="H42" s="215"/>
       <c r="I42" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="J42" s="215"/>
-      <c r="K42" s="216"/>
+        <v>510</v>
+      </c>
+      <c r="J42" s="214"/>
+      <c r="K42" s="215"/>
       <c r="L42" s="128" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -10434,24 +10424,24 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="D48" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M48" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="3:17">
       <c r="G49" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H49" s="3"/>
       <c r="M49" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -10462,7 +10452,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="5"/>
@@ -10509,10 +10499,10 @@
     </row>
     <row r="55" spans="3:17">
       <c r="D55" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J55" s="3"/>
     </row>
@@ -10520,7 +10510,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="9"/>
       <c r="M56" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="15.75" thickBot="1">
@@ -10533,11 +10523,11 @@
     </row>
     <row r="58" spans="3:17">
       <c r="I58" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M58" s="22"/>
       <c r="N58" s="23"/>
@@ -10564,11 +10554,11 @@
     </row>
     <row r="61" spans="3:17">
       <c r="I61" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M61" s="22"/>
       <c r="N61" s="23"/>
@@ -10589,11 +10579,11 @@
     </row>
     <row r="64" spans="3:17">
       <c r="I64" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="23"/>
@@ -10626,10 +10616,10 @@
     </row>
     <row r="82" spans="3:13">
       <c r="C82" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F82" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H82" s="137"/>
     </row>
@@ -10658,10 +10648,10 @@
     </row>
     <row r="88" spans="3:13">
       <c r="E88" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H88" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J88" s="136">
         <v>44134</v>
@@ -10680,28 +10670,28 @@
     </row>
     <row r="92" spans="3:13">
       <c r="L92" s="135" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="3:13">
       <c r="L93" s="135" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M93" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="3:13">
       <c r="L94" s="135" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="3:13">
       <c r="G95" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J95" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L95" s="136">
         <v>44165</v>
@@ -10709,17 +10699,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -10727,12 +10712,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10781,22 +10771,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="223" t="s">
-        <v>573</v>
-      </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223" t="s">
-        <v>574</v>
-      </c>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223" t="s">
-        <v>575</v>
-      </c>
-      <c r="N3" s="223"/>
+      <c r="E3" s="224" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224" t="s">
+        <v>570</v>
+      </c>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224" t="s">
+        <v>571</v>
+      </c>
+      <c r="N3" s="224"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -10807,15 +10797,15 @@
       <c r="B4" s="4"/>
       <c r="C4" s="144"/>
       <c r="D4" s="145"/>
-      <c r="E4" s="224" t="s">
-        <v>576</v>
+      <c r="E4" s="225" t="s">
+        <v>572</v>
       </c>
       <c r="F4" s="118"/>
       <c r="G4" s="120"/>
       <c r="H4" s="120"/>
       <c r="I4" s="120"/>
       <c r="J4" s="120" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K4" s="120"/>
       <c r="L4" s="120"/>
@@ -10835,26 +10825,26 @@
         <v>187</v>
       </c>
       <c r="D5" s="147"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="227" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="228" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="229" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="230"/>
+      <c r="I5" s="231" t="s">
+        <v>576</v>
+      </c>
+      <c r="J5" s="232"/>
+      <c r="K5" s="229" t="s">
+        <v>577</v>
+      </c>
+      <c r="L5" s="230"/>
+      <c r="M5" s="237" t="s">
         <v>578</v>
       </c>
-      <c r="G5" s="228" t="s">
-        <v>579</v>
-      </c>
-      <c r="H5" s="229"/>
-      <c r="I5" s="230" t="s">
-        <v>580</v>
-      </c>
-      <c r="J5" s="231"/>
-      <c r="K5" s="228" t="s">
-        <v>581</v>
-      </c>
-      <c r="L5" s="229"/>
-      <c r="M5" s="236" t="s">
-        <v>582</v>
-      </c>
-      <c r="N5" s="237"/>
+      <c r="N5" s="238"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -10865,16 +10855,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="148"/>
       <c r="D6" s="149"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="239"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="239"/>
+      <c r="N6" s="240"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>188</v>
@@ -10891,16 +10881,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="239"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="239"/>
+      <c r="N7" s="240"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -10919,16 +10909,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="233"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="240"/>
       <c r="O8" s="5" t="s">
         <v>193</v>
       </c>
@@ -10949,16 +10939,16 @@
         <v>196</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="239"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="239"/>
+      <c r="N9" s="240"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -10972,19 +10962,19 @@
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="239"/>
+      <c r="N10" s="240"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -10997,16 +10987,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="239"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="239"/>
+      <c r="N11" s="240"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -11017,16 +11007,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="239"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="240"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -11039,16 +11029,16 @@
         <v>198</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="239"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="234"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="240"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -11059,16 +11049,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="239"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="239"/>
+      <c r="N14" s="240"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -11079,16 +11069,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="239"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="239"/>
+      <c r="N15" s="240"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -11099,16 +11089,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="225"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="239"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="239"/>
+      <c r="N16" s="240"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -11121,16 +11111,16 @@
         <v>199</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="239"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="239"/>
+      <c r="N17" s="240"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -11141,16 +11131,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="240"/>
-      <c r="N18" s="241"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="242"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -11179,26 +11169,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="183"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="182" t="s">
+      <c r="F20" s="183" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="182" t="s">
-        <v>583</v>
-      </c>
-      <c r="N20" s="183"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="183" t="s">
+        <v>579</v>
+      </c>
+      <c r="N20" s="184"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -11264,14 +11254,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="242" t="s">
-        <v>593</v>
-      </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
+      <c r="B1" s="243" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
       <c r="I1" s="40" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J1" s="40"/>
     </row>
@@ -11289,7 +11279,7 @@
         <v>342</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="J2" s="40"/>
     </row>
@@ -11301,16 +11291,16 @@
         <v>349</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J3" s="40"/>
     </row>
@@ -11322,19 +11312,19 @@
         <v>356</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="I4" t="s">
         <v>600</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="I4" t="s">
-        <v>604</v>
-      </c>
       <c r="J4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11342,19 +11332,19 @@
         <v>32</v>
       </c>
       <c r="C5" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>598</v>
       </c>
-      <c r="D5" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>602</v>
-      </c>
       <c r="G5" s="138" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11363,10 +11353,10 @@
       <c r="D6" s="70"/>
       <c r="E6" s="165"/>
       <c r="G6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11375,64 +11365,64 @@
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="J7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
       <c r="J8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="C12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="J13" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I14" t="s">
         <v>245</v>
@@ -11440,56 +11430,56 @@
     </row>
     <row r="15" spans="1:10">
       <c r="J15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="C17" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C19" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="F24" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G24" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="C26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E26" t="s">
+        <v>634</v>
+      </c>
+      <c r="G26" t="s">
         <v>636</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>638</v>
-      </c>
-      <c r="G26" t="s">
-        <v>640</v>
-      </c>
-      <c r="I26" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="C28" t="s">
+        <v>633</v>
+      </c>
+      <c r="E28" t="s">
+        <v>635</v>
+      </c>
+      <c r="G28" t="s">
         <v>637</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>639</v>
-      </c>
-      <c r="G28" t="s">
-        <v>641</v>
-      </c>
-      <c r="I28" t="s">
-        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -11517,32 +11507,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C2" s="244" t="s">
-        <v>629</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
+      <c r="C2" s="248" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="4" t="s">
@@ -11568,30 +11558,30 @@
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="243" t="s">
+      <c r="N5" s="247" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
+      <c r="O5" s="247"/>
+      <c r="P5" s="247"/>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -11599,7 +11589,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="143" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="143"/>
@@ -11607,7 +11597,7 @@
       <c r="I7" s="84"/>
       <c r="J7" s="143"/>
       <c r="K7" s="24" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
@@ -11626,20 +11616,20 @@
         <v>196</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="245" t="s">
-        <v>630</v>
-      </c>
-      <c r="F8" s="246"/>
-      <c r="G8" s="245" t="s">
-        <v>631</v>
-      </c>
-      <c r="H8" s="247"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="245" t="s">
-        <v>632</v>
-      </c>
-      <c r="K8" s="247"/>
-      <c r="L8" s="246"/>
+      <c r="E8" s="249" t="s">
+        <v>626</v>
+      </c>
+      <c r="F8" s="250"/>
+      <c r="G8" s="249" t="s">
+        <v>627</v>
+      </c>
+      <c r="H8" s="251"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="249" t="s">
+        <v>628</v>
+      </c>
+      <c r="K8" s="251"/>
+      <c r="L8" s="250"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -11656,14 +11646,14 @@
     <row r="9" spans="3:16" ht="15" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="246"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="250"/>
       <c r="M9" s="5" t="s">
         <v>193</v>
       </c>
@@ -11671,7 +11661,7 @@
         <v>30</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="P9" s="70" t="s">
         <v>195</v>
@@ -11680,14 +11670,14 @@
     <row r="10" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="245"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="246"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="250"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -11698,14 +11688,14 @@
     <row r="11" spans="3:16" ht="15" customHeight="1">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="246"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="250"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -11722,12 +11712,12 @@
       <c r="F12" s="84"/>
       <c r="G12" s="143"/>
       <c r="H12" s="24" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="143"/>
       <c r="K12" s="24" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
@@ -11755,7 +11745,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="150" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
@@ -11769,11 +11759,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="151" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="151" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
@@ -11787,11 +11777,11 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="152" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="152" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
@@ -11802,18 +11792,18 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="248" t="s">
-        <v>633</v>
-      </c>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="249"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="250"/>
+      <c r="E17" s="244" t="s">
+        <v>629</v>
+      </c>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="246"/>
       <c r="M17" s="40" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
@@ -11829,35 +11819,35 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="182" t="s">
+      <c r="D19" s="184"/>
+      <c r="E19" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="182" t="s">
+      <c r="F19" s="184"/>
+      <c r="G19" s="183" t="s">
         <v>202</v>
       </c>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="183"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="E8:F11"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="J8:L11"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="E17:L17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="E8:F11"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="J8:L11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1"/>
@@ -11895,7 +11885,7 @@
     <row r="4" spans="1:17">
       <c r="H4" s="4"/>
       <c r="I4" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -11932,13 +11922,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G7" t="s">
         <v>292</v>
@@ -11946,12 +11936,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
@@ -11963,19 +11953,19 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>30</v>
@@ -11988,17 +11978,17 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
@@ -12018,7 +12008,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -12039,15 +12029,15 @@
         <v>323</v>
       </c>
       <c r="D12" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
@@ -12065,7 +12055,7 @@
         <v>323</v>
       </c>
       <c r="D13" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -12114,7 +12104,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -12144,26 +12134,26 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C18" t="s">
         <v>353</v>
       </c>
       <c r="D18" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
       <c r="M18" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="5"/>
@@ -12175,7 +12165,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C19" t="s">
         <v>394</v>
@@ -12186,14 +12176,14 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>394</v>
@@ -12567,22 +12557,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="223" t="s">
-        <v>573</v>
-      </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223" t="s">
-        <v>574</v>
-      </c>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223" t="s">
-        <v>575</v>
-      </c>
-      <c r="N3" s="223"/>
+      <c r="E3" s="224" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224" t="s">
+        <v>570</v>
+      </c>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224" t="s">
+        <v>571</v>
+      </c>
+      <c r="N3" s="224"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -12593,15 +12583,15 @@
       <c r="B4" s="4"/>
       <c r="C4" s="144"/>
       <c r="D4" s="145"/>
-      <c r="E4" s="224" t="s">
-        <v>576</v>
+      <c r="E4" s="225" t="s">
+        <v>572</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="141"/>
       <c r="H4" s="141"/>
       <c r="I4" s="141"/>
       <c r="J4" s="141" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K4" s="141"/>
       <c r="L4" s="141"/>
@@ -12621,22 +12611,22 @@
         <v>187</v>
       </c>
       <c r="D5" s="147"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="187" t="s">
-        <v>676</v>
-      </c>
-      <c r="G5" s="188"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="251" t="s">
-        <v>677</v>
-      </c>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="251" t="s">
-        <v>678</v>
-      </c>
-      <c r="N5" s="231"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="188" t="s">
+        <v>672</v>
+      </c>
+      <c r="G5" s="189"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="252" t="s">
+        <v>673</v>
+      </c>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="252" t="s">
+        <v>674</v>
+      </c>
+      <c r="N5" s="232"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -12647,16 +12637,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="148"/>
       <c r="D6" s="149"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="232"/>
-      <c r="N6" s="233"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="234"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>188</v>
@@ -12673,16 +12663,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="232"/>
-      <c r="N7" s="233"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="233"/>
+      <c r="N7" s="234"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -12701,16 +12691,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="232"/>
-      <c r="N8" s="233"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="234"/>
       <c r="O8" s="5" t="s">
         <v>193</v>
       </c>
@@ -12731,16 +12721,16 @@
         <v>196</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="232"/>
-      <c r="N9" s="233"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="234"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -12754,19 +12744,19 @@
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="233"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="234"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -12779,16 +12769,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="232"/>
-      <c r="N11" s="233"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="234"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -12799,16 +12789,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="233"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="234"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -12821,16 +12811,16 @@
         <v>198</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="233"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="233"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="254"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="233"/>
+      <c r="N13" s="234"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -12841,16 +12831,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="233"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="233"/>
+      <c r="N14" s="234"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -12861,16 +12851,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="233"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="233"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="233"/>
+      <c r="N15" s="234"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -12881,16 +12871,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="233"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="233"/>
+      <c r="N16" s="234"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -12903,16 +12893,16 @@
         <v>199</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="233"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="234"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -12923,16 +12913,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="254"/>
-      <c r="K18" s="254"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="235"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="255"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="236"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -12961,26 +12951,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="183"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="182" t="s">
+      <c r="F20" s="183" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="182" t="s">
-        <v>583</v>
-      </c>
-      <c r="N20" s="183"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="183" t="s">
+        <v>579</v>
+      </c>
+      <c r="N20" s="184"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -13009,16 +12999,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="F5:H18"/>
     <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -13190,13 +13180,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>156</v>
@@ -13740,14 +13730,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="169" t="s">
+      <c r="K4" s="170" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
       <c r="S4" s="40" t="s">
         <v>185</v>
       </c>
@@ -13861,10 +13851,10 @@
       <c r="L8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="185" t="s">
+      <c r="M8" s="186" t="s">
         <v>219</v>
       </c>
-      <c r="N8" s="186"/>
+      <c r="N8" s="187"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
       <c r="Q8" t="s">
@@ -13904,8 +13894,8 @@
       <c r="L9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="M9" s="186"/>
-      <c r="N9" s="186"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="Q9">
@@ -13931,8 +13921,8 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" t="s">
@@ -13943,13 +13933,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="175"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
       <c r="F11" t="s">
         <v>215</v>
       </c>
@@ -13958,8 +13948,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
       <c r="R11" s="38"/>
@@ -13967,18 +13957,18 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
       <c r="R12" s="38"/>
@@ -13986,11 +13976,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="176"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>198</v>
@@ -13998,17 +13988,17 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
       <c r="O13" s="28"/>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="181"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="182"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -14111,20 +14101,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="182" t="s">
+      <c r="I20" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="J20" s="183"/>
-      <c r="K20" s="182" t="s">
+      <c r="J20" s="184"/>
+      <c r="K20" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="L20" s="183"/>
-      <c r="M20" s="182" t="s">
+      <c r="L20" s="184"/>
+      <c r="M20" s="183" t="s">
         <v>202</v>
       </c>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="183"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="184"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1">
       <c r="A21" s="24"/>
@@ -14556,13 +14546,13 @@
         <v>187</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="172"/>
       <c r="T4" s="40" t="s">
         <v>185</v>
       </c>
@@ -14665,10 +14655,10 @@
       <c r="L8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="196" t="s">
+      <c r="M8" s="197" t="s">
         <v>219</v>
       </c>
-      <c r="N8" s="197"/>
+      <c r="N8" s="198"/>
       <c r="O8" s="86"/>
       <c r="P8" s="113" t="s">
         <v>436</v>
@@ -14714,8 +14704,8 @@
       <c r="L9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="M9" s="198"/>
-      <c r="N9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="200"/>
       <c r="O9" s="86"/>
       <c r="P9" s="114"/>
       <c r="S9" s="38" t="s">
@@ -14750,8 +14740,8 @@
       <c r="L10" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="M10" s="198"/>
-      <c r="N10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="200"/>
       <c r="O10" s="86" t="s">
         <v>376</v>
       </c>
@@ -14781,8 +14771,8 @@
       <c r="L11" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="M11" s="198"/>
-      <c r="N11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="200"/>
       <c r="O11" s="86"/>
       <c r="P11" s="114"/>
       <c r="Q11" s="6"/>
@@ -14808,8 +14798,8 @@
       <c r="L12" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="M12" s="198"/>
-      <c r="N12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="200"/>
       <c r="O12" s="86"/>
       <c r="P12" s="114"/>
       <c r="Q12" s="6"/>
@@ -14818,13 +14808,13 @@
       <c r="U12" s="38"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A13" s="187" t="s">
+      <c r="A13" s="188" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="190"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>278</v>
@@ -14834,8 +14824,8 @@
       <c r="L13" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="200"/>
-      <c r="N13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="202"/>
       <c r="O13" s="86"/>
       <c r="P13" s="115"/>
       <c r="Q13" s="6"/>
@@ -14844,11 +14834,11 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="190"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="192"/>
+      <c r="A14" s="191"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="193"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -14864,11 +14854,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="190"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="192"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="193"/>
       <c r="H15" s="4"/>
       <c r="I15" s="8"/>
       <c r="J15" s="10"/>
@@ -14886,11 +14876,11 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="196"/>
       <c r="F16" s="24"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>

--- a/jee_latest.xlsx
+++ b/jee_latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="1120">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -1435,9 +1435,6 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Dotnet</t>
-  </si>
-  <si>
     <t>php</t>
   </si>
   <si>
@@ -3612,6 +3609,123 @@
   </si>
   <si>
     <t>motorola</t>
+  </si>
+  <si>
+    <t>Expedia java program</t>
+  </si>
+  <si>
+    <t>split project vertically</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>related functional services</t>
+  </si>
+  <si>
+    <t>Web page</t>
+  </si>
+  <si>
+    <t>Business program</t>
+  </si>
+  <si>
+    <t>JDBC program</t>
+  </si>
+  <si>
+    <t>Login servlet</t>
+  </si>
+  <si>
+    <t>Login program</t>
+  </si>
+  <si>
+    <t>Login table</t>
+  </si>
+  <si>
+    <t>JEE stack</t>
+  </si>
+  <si>
+    <t>Frond end</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>javasript</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>CPU1</t>
+  </si>
+  <si>
+    <t>Cpu2</t>
+  </si>
+  <si>
+    <t>cpu3</t>
+  </si>
+  <si>
+    <t>cpu4</t>
+  </si>
+  <si>
+    <t>Customer 100</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c100</t>
+  </si>
+  <si>
+    <t>0.1 seconds</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>3 seconds</t>
   </si>
 </sst>
 </file>
@@ -4292,7 +4406,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4666,6 +4780,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4673,18 +4796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4710,6 +4821,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4796,6 +4919,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5075,12 +5204,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5466,14 +5589,14 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C5" s="5">
         <v>42000</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F5" s="5">
         <v>52000</v>
@@ -7031,10 +7154,10 @@
       <c r="G170" s="18"/>
       <c r="H170" s="19"/>
       <c r="I170" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M170" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N170" s="17"/>
       <c r="O170" s="18"/>
@@ -7046,14 +7169,14 @@
       <c r="C171" s="20"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="21"/>
       <c r="N171" s="5"/>
       <c r="O171" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
@@ -7105,7 +7228,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="21"/>
       <c r="H175" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N175" s="20"/>
       <c r="O175" s="5"/>
@@ -7147,7 +7270,7 @@
       <c r="G178" s="23"/>
       <c r="H178" s="21"/>
       <c r="J178" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N178" s="22"/>
       <c r="O178" s="26"/>
@@ -7183,11 +7306,11 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H180" s="21"/>
       <c r="J180" s="158" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="21"/>
@@ -7220,7 +7343,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="156"/>
       <c r="H182" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J182" s="20"/>
       <c r="K182" s="5"/>
@@ -7234,7 +7357,7 @@
     <row r="183" spans="3:18">
       <c r="C183" s="20"/>
       <c r="D183" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E183" s="5">
         <v>23456</v>
@@ -7276,13 +7399,13 @@
     </row>
     <row r="187" spans="3:18">
       <c r="E187" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G187" t="s">
         <v>392</v>
       </c>
       <c r="O187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" spans="3:18" ht="15.75" thickBot="1"/>
@@ -7291,7 +7414,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="3"/>
       <c r="I189" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="190" spans="3:18" ht="15.75" thickBot="1">
@@ -7325,7 +7448,7 @@
     </row>
     <row r="195" spans="3:18" ht="15.75" thickBot="1">
       <c r="C195" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J195" s="40"/>
       <c r="K195" s="40" t="s">
@@ -7333,7 +7456,7 @@
       </c>
       <c r="L195" s="40"/>
       <c r="N195" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="196" spans="3:18">
@@ -7344,15 +7467,15 @@
       <c r="G196" s="18"/>
       <c r="H196" s="19"/>
       <c r="I196" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J196" s="40"/>
       <c r="K196" s="40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L196" s="40"/>
       <c r="M196" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="2"/>
@@ -7381,7 +7504,7 @@
     <row r="198" spans="3:18" ht="15.75" thickBot="1">
       <c r="C198" s="20"/>
       <c r="D198" s="159" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="18"/>
@@ -7447,7 +7570,7 @@
         <v>50</v>
       </c>
       <c r="L201" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
@@ -7465,10 +7588,10 @@
       <c r="I202" s="11"/>
       <c r="J202" s="40"/>
       <c r="K202" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="L202" s="40" t="s">
         <v>650</v>
-      </c>
-      <c r="L202" s="40" t="s">
-        <v>651</v>
       </c>
       <c r="N202" s="4"/>
       <c r="O202" s="8"/>
@@ -7504,7 +7627,7 @@
       <c r="G204" s="9"/>
       <c r="H204" s="21"/>
       <c r="I204" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J204" s="40"/>
       <c r="K204" s="40"/>
@@ -7526,7 +7649,7 @@
         <v>12345</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28"/>
@@ -7633,21 +7756,21 @@
     </row>
     <row r="213" spans="1:18">
       <c r="E213" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G213" t="s">
         <v>392</v>
       </c>
       <c r="O213" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="219" spans="1:18" ht="15.75" thickBot="1">
       <c r="E219" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -7657,10 +7780,10 @@
       <c r="D220" s="2"/>
       <c r="E220" s="3"/>
       <c r="F220" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J220" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -7689,7 +7812,7 @@
       <c r="D222" s="5"/>
       <c r="E222" s="6"/>
       <c r="J222" s="161" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
@@ -7725,11 +7848,11 @@
       <c r="D224" s="5"/>
       <c r="E224" s="6"/>
       <c r="I224" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J224" s="161"/>
       <c r="K224" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
@@ -7745,7 +7868,7 @@
       <c r="D225" s="5"/>
       <c r="E225" s="6"/>
       <c r="I225" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J225" s="13">
         <v>80</v>
@@ -7789,7 +7912,7 @@
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
       <c r="E228" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J228" s="161"/>
       <c r="K228" s="5"/>
@@ -7803,18 +7926,18 @@
     <row r="229" spans="1:17">
       <c r="A229" s="4"/>
       <c r="B229" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6"/>
       <c r="I229" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J229" s="14">
         <v>22</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
@@ -7879,7 +8002,7 @@
     </row>
     <row r="234" spans="1:17" ht="15.75" thickBot="1">
       <c r="E234" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J234" s="161"/>
       <c r="K234" s="10"/>
@@ -7912,7 +8035,7 @@
     <row r="236" spans="1:17">
       <c r="A236" s="4"/>
       <c r="B236" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -7963,21 +8086,21 @@
     </row>
     <row r="240" spans="1:17">
       <c r="H240" t="s">
+        <v>658</v>
+      </c>
+      <c r="J240" t="s">
         <v>659</v>
-      </c>
-      <c r="J240" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="241" spans="5:10">
       <c r="E241" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G241" t="s">
         <v>270</v>
       </c>
       <c r="J241" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -8369,7 +8492,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -8378,10 +8501,10 @@
         <v>123</v>
       </c>
       <c r="Q33" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>798</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>799</v>
       </c>
       <c r="S33" s="6"/>
     </row>
@@ -8395,7 +8518,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="5"/>
@@ -8408,17 +8531,17 @@
         <v>304</v>
       </c>
       <c r="R34" s="38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="4"/>
       <c r="B35" s="83" t="s">
+        <v>786</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -8431,10 +8554,10 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R35" s="38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S35" s="6"/>
     </row>
@@ -8453,7 +8576,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R36" s="38">
         <v>10</v>
@@ -8468,15 +8591,15 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="5"/>
@@ -8581,7 +8704,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -8593,7 +8716,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="B44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
@@ -8608,7 +8731,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="B45" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="5"/>
@@ -8623,7 +8746,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="C46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="5"/>
@@ -8638,7 +8761,7 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1">
       <c r="C47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
@@ -8668,17 +8791,17 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -8686,7 +8809,7 @@
         <v>269</v>
       </c>
       <c r="H54" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J54" t="s">
         <v>164</v>
@@ -8697,7 +8820,7 @@
         <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J55" t="s">
         <v>226</v>
@@ -8708,10 +8831,10 @@
         <v>202</v>
       </c>
       <c r="G56" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J56" t="s">
         <v>227</v>
@@ -8719,10 +8842,10 @@
     </row>
     <row r="57" spans="2:11">
       <c r="F57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -8730,10 +8853,10 @@
         <v>182</v>
       </c>
       <c r="G60" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H60" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J60" t="s">
         <v>226</v>
@@ -8744,7 +8867,7 @@
         <v>202</v>
       </c>
       <c r="H61" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J61" t="s">
         <v>227</v>
@@ -8752,32 +8875,32 @@
     </row>
     <row r="62" spans="2:11">
       <c r="F62" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="G64" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H64" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J64" t="s">
+        <v>811</v>
+      </c>
+      <c r="K64" t="s">
         <v>812</v>
-      </c>
-      <c r="K64" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="65" spans="6:10">
       <c r="G65" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J65" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="67" spans="6:10">
@@ -8805,7 +8928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="C28" workbookViewId="0">
       <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
@@ -8822,7 +8945,7 @@
   <sheetData>
     <row r="2" spans="1:17" ht="15.75">
       <c r="C2" s="204" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -8877,7 +9000,7 @@
         <v>331</v>
       </c>
       <c r="G5" s="250" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H5" s="84">
         <v>11123</v>
@@ -8915,7 +9038,7 @@
         <v>331</v>
       </c>
       <c r="G6" s="250" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H6" s="84">
         <v>12345</v>
@@ -9034,7 +9157,7 @@
       <c r="H10" s="251">
         <v>12345</v>
       </c>
-      <c r="I10" s="405" t="s">
+      <c r="I10" s="268" t="s">
         <v>333</v>
       </c>
       <c r="J10" s="103">
@@ -9053,7 +9176,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -9064,7 +9187,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="94" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="94">
@@ -9789,7 +9912,7 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -9839,10 +9962,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="308" t="s">
+      <c r="L35" s="315" t="s">
         <v>377</v>
       </c>
-      <c r="M35" s="308"/>
+      <c r="M35" s="315"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -10320,7 +10443,7 @@
       </c>
       <c r="O47" s="98"/>
       <c r="P47" s="94" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q47" s="97">
         <v>1000000</v>
@@ -10343,7 +10466,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="99"/>
       <c r="P48" s="87" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q48" s="105">
         <v>1000</v>
@@ -10402,7 +10525,7 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -11142,7 +11265,7 @@
         <v>331</v>
       </c>
       <c r="J79" s="94" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K79" s="97">
         <v>12345</v>
@@ -11210,10 +11333,10 @@
         <v>337</v>
       </c>
       <c r="F81" s="203" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G81" s="94" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H81" s="94" t="s">
         <v>32</v>
@@ -11222,7 +11345,7 @@
         <v>159</v>
       </c>
       <c r="J81" s="94" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K81" s="97">
         <v>213</v>
@@ -11305,7 +11428,7 @@
     </row>
     <row r="90" spans="3:17">
       <c r="C90" s="87" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D90" s="105">
         <v>1000000</v>
@@ -11313,7 +11436,7 @@
     </row>
     <row r="105" spans="7:11">
       <c r="K105" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="108" spans="7:11">
@@ -11405,7 +11528,7 @@
         <v>3</v>
       </c>
       <c r="H114" s="97" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I114" s="97">
         <v>2</v>
@@ -11419,7 +11542,7 @@
         <v>3</v>
       </c>
       <c r="H115" s="97" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I115" s="97">
         <v>1</v>
@@ -11430,7 +11553,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="B119" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G119" t="s">
         <v>404</v>
@@ -11441,7 +11564,7 @@
         <v>183</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D120" s="38" t="s">
         <v>328</v>
@@ -11450,10 +11573,10 @@
         <v>183</v>
       </c>
       <c r="H120" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="I120" s="38" t="s">
         <v>838</v>
-      </c>
-      <c r="I120" s="38" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -11473,7 +11596,7 @@
         <v>334</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -11493,7 +11616,7 @@
         <v>335</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -11524,10 +11647,10 @@
     </row>
     <row r="126" spans="1:10">
       <c r="B126" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -11538,10 +11661,10 @@
         <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E127" s="209" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F127" s="210"/>
       <c r="G127" s="115" t="s">
@@ -11554,7 +11677,7 @@
         <v>334</v>
       </c>
       <c r="J127" s="115" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -11565,10 +11688,10 @@
         <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E128" s="209" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F128" s="210"/>
     </row>
@@ -11969,7 +12092,7 @@
     </row>
     <row r="29" spans="3:16">
       <c r="F29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="33" spans="4:12">
@@ -11985,7 +12108,7 @@
     </row>
     <row r="35" spans="4:12">
       <c r="E35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J35" t="s">
         <v>420</v>
@@ -12005,10 +12128,10 @@
         <v>183</v>
       </c>
       <c r="J36" s="38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L36" s="38" t="s">
         <v>328</v>
@@ -12022,7 +12145,7 @@
         <v>209</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>26</v>
@@ -12045,7 +12168,7 @@
         <v>189</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I38" s="38" t="s">
         <v>26</v>
@@ -12071,7 +12194,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L39" s="38">
         <v>1</v>
@@ -12079,12 +12202,12 @@
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="53" spans="2:14">
@@ -12103,10 +12226,10 @@
     </row>
     <row r="54" spans="2:14">
       <c r="B54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D54" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K54" s="211" t="s">
         <v>330</v>
@@ -12123,10 +12246,10 @@
     </row>
     <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D55" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K55" s="203" t="s">
         <v>337</v>
@@ -12143,13 +12266,13 @@
     </row>
     <row r="56" spans="2:14">
       <c r="B56" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K56" s="203" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L56" s="94" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M56" s="94" t="s">
         <v>32</v>
@@ -12160,7 +12283,7 @@
     </row>
     <row r="57" spans="2:14">
       <c r="B57" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K57" s="211" t="s">
         <v>330</v>
@@ -12169,7 +12292,7 @@
         <v>209</v>
       </c>
       <c r="M57" s="94" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N57" s="94" t="s">
         <v>393</v>
@@ -12177,19 +12300,19 @@
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="210" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C58" s="210"/>
       <c r="D58" s="210"/>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -12197,29 +12320,29 @@
     </row>
     <row r="61" spans="2:14">
       <c r="B61" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C62" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J62" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="63" spans="2:14">
       <c r="C63" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G63" t="s">
         <v>331</v>
@@ -12230,17 +12353,17 @@
     </row>
     <row r="64" spans="2:14">
       <c r="B64" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C64" s="210" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D64" s="210"/>
       <c r="E64" s="210"/>
       <c r="F64" s="210"/>
       <c r="G64" s="210"/>
       <c r="J64" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K64" t="s">
         <v>321</v>
@@ -12251,13 +12374,13 @@
     </row>
     <row r="65" spans="1:15">
       <c r="B65" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K65" s="38" t="s">
+        <v>868</v>
+      </c>
+      <c r="L65" s="38" t="s">
         <v>869</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -12266,27 +12389,27 @@
     </row>
     <row r="68" spans="1:15">
       <c r="F68" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N68" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="D69" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J69" t="s">
         <v>1026</v>
       </c>
-      <c r="F69" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1027</v>
-      </c>
       <c r="N69" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O69" t="s">
         <v>1058</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -12300,13 +12423,13 @@
         <v>323</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H70" s="12"/>
-      <c r="J70" s="403" t="s">
-        <v>825</v>
-      </c>
-      <c r="K70" s="403" t="s">
+      <c r="J70" s="266" t="s">
+        <v>824</v>
+      </c>
+      <c r="K70" s="266" t="s">
         <v>327</v>
       </c>
       <c r="L70" s="12" t="s">
@@ -12315,10 +12438,10 @@
     </row>
     <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C71" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
@@ -12335,24 +12458,24 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C72" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G72" s="38">
         <v>345</v>
@@ -12362,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="K72" s="250" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L72" s="250">
         <v>1</v>
@@ -12371,15 +12494,15 @@
         <v>363</v>
       </c>
       <c r="O72" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C73" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>32</v>
@@ -12388,7 +12511,7 @@
         <v>159</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G73" s="38">
         <v>123</v>
@@ -12414,7 +12537,7 @@
         <v>3</v>
       </c>
       <c r="K74" s="250" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L74" s="250">
         <v>2</v>
@@ -12432,13 +12555,13 @@
     </row>
     <row r="76" spans="1:15">
       <c r="D76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E76" t="s">
         <v>1036</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>1037</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -12453,7 +12576,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L79" s="38"/>
       <c r="M79" s="38"/>
@@ -12461,7 +12584,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -12475,7 +12598,7 @@
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
       <c r="I81" s="38"/>
-      <c r="J81" s="402"/>
+      <c r="J81" s="265"/>
       <c r="K81" s="38"/>
     </row>
     <row r="82" spans="1:14">
@@ -12483,7 +12606,7 @@
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
-      <c r="J82" s="402"/>
+      <c r="J82" s="265"/>
       <c r="K82" s="38"/>
     </row>
     <row r="83" spans="1:14">
@@ -12494,10 +12617,10 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N83" t="s">
         <v>1049</v>
-      </c>
-      <c r="N83" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -12508,83 +12631,83 @@
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="N84" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D85" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N85" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D86" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H86" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D87" t="s">
         <v>1041</v>
       </c>
-      <c r="D87" t="s">
-        <v>1042</v>
-      </c>
       <c r="H87" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N87" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D88" t="s">
         <v>1043</v>
       </c>
-      <c r="D88" t="s">
-        <v>1044</v>
-      </c>
       <c r="N88" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="N89" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="F90" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G90" t="s">
         <v>1072</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="F91" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G91" t="s">
         <v>1070</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="F92" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G92" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -12593,38 +12716,38 @@
     </row>
     <row r="94" spans="1:14">
       <c r="E94" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J94" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="E95" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
       <c r="H95" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J95" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="E96" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F96" s="404"/>
+        <v>1068</v>
+      </c>
+      <c r="F96" s="267"/>
       <c r="G96" s="38"/>
       <c r="H96" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="97" spans="6:9">
@@ -12635,18 +12758,18 @@
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I98" t="s">
         <v>1074</v>
-      </c>
-      <c r="I98" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="H99" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I99" t="s">
         <v>1076</v>
-      </c>
-      <c r="I99" t="s">
-        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -12657,20 +12780,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q119"/>
+  <dimension ref="A2:Q203"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94:E94"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M194" sqref="M194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" s="37" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B4" t="s">
+        <v>1082</v>
+      </c>
+    </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1">
       <c r="D5" s="1" t="s">
         <v>150</v>
@@ -12691,18 +12818,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="313" t="s">
+      <c r="E6" s="322" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="266" t="s">
+      <c r="F6" s="274"/>
+      <c r="G6" s="273" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="266"/>
-      <c r="I6" s="266"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="267"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="274"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -12712,7 +12839,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="309">
+      <c r="D7" s="318">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -12730,7 +12857,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="309"/>
+      <c r="D8" s="318"/>
       <c r="E8" s="48" t="s">
         <v>411</v>
       </c>
@@ -12763,7 +12890,7 @@
       <c r="B9" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="309"/>
+      <c r="D9" s="318"/>
       <c r="E9" s="149"/>
       <c r="F9" s="150"/>
       <c r="G9" s="149"/>
@@ -12787,7 +12914,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="309"/>
+      <c r="D10" s="318"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -12811,7 +12938,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="309"/>
+      <c r="D11" s="318"/>
       <c r="E11" s="48" t="s">
         <v>415</v>
       </c>
@@ -12840,7 +12967,7 @@
       <c r="B12" s="215" t="s">
         <v>419</v>
       </c>
-      <c r="D12" s="309"/>
+      <c r="D12" s="318"/>
       <c r="E12" s="149"/>
       <c r="F12" s="150"/>
       <c r="G12" s="149"/>
@@ -12858,7 +12985,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="309"/>
+      <c r="D13" s="318"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -12874,7 +13001,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="309"/>
+      <c r="D14" s="318"/>
       <c r="E14" s="48" t="s">
         <v>420</v>
       </c>
@@ -12898,7 +13025,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="309"/>
+      <c r="D15" s="318"/>
       <c r="E15" s="149"/>
       <c r="F15" s="150"/>
       <c r="G15" s="149"/>
@@ -12914,7 +13041,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="309"/>
+      <c r="D16" s="318"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -12929,8 +13056,8 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1">
-      <c r="D17" s="309"/>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="D17" s="318"/>
       <c r="E17" s="48" t="s">
         <v>424</v>
       </c>
@@ -12953,8 +13080,8 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1">
-      <c r="D18" s="309"/>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1">
+      <c r="D18" s="318"/>
       <c r="E18" s="149"/>
       <c r="F18" s="150"/>
       <c r="G18" s="71"/>
@@ -12969,29 +13096,29 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="314" t="s">
+      <c r="E19" s="323" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="315"/>
-      <c r="G19" s="314" t="s">
+      <c r="F19" s="324"/>
+      <c r="G19" s="323" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="315"/>
-      <c r="I19" s="314" t="s">
+      <c r="H19" s="324"/>
+      <c r="I19" s="323" t="s">
         <v>197</v>
       </c>
-      <c r="J19" s="316"/>
-      <c r="K19" s="316"/>
-      <c r="L19" s="315"/>
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="324"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="1:17">
       <c r="D20" s="5"/>
       <c r="E20" s="92"/>
       <c r="F20" s="92"/>
@@ -13007,9 +13134,9 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="1:17">
       <c r="B21" s="37" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="92"/>
@@ -13026,8 +13153,8 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="23" spans="2:17">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:17">
       <c r="D23" s="1" t="s">
         <v>150</v>
       </c>
@@ -13045,22 +13172,22 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="317"/>
-      <c r="H24" s="317"/>
-      <c r="I24" s="317"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="317"/>
-      <c r="L24" s="317"/>
+      <c r="G24" s="326"/>
+      <c r="H24" s="326"/>
+      <c r="I24" s="326"/>
+      <c r="J24" s="326"/>
+      <c r="K24" s="326"/>
+      <c r="L24" s="326"/>
       <c r="O24" s="40" t="s">
         <v>180</v>
       </c>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1">
       <c r="D25" s="217">
         <v>80</v>
       </c>
@@ -13082,7 +13209,7 @@
       <c r="L25" s="108"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1">
       <c r="B26" s="215" t="s">
         <v>428</v>
       </c>
@@ -13105,22 +13232,22 @@
       </c>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="D27" s="216">
         <v>5050</v>
       </c>
-      <c r="E27" s="213" t="s">
+      <c r="E27" s="271" t="s">
         <v>429</v>
       </c>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214" t="s">
+      <c r="F27" s="151"/>
+      <c r="G27" s="151" t="s">
         <v>413</v>
       </c>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214" t="s">
+      <c r="H27" s="151"/>
+      <c r="I27" s="151" t="s">
         <v>414</v>
       </c>
-      <c r="J27" s="214"/>
+      <c r="J27" s="151"/>
       <c r="K27" s="151"/>
       <c r="L27" s="152"/>
       <c r="M27" t="s">
@@ -13137,7 +13264,10 @@
       </c>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A28" t="s">
+        <v>1083</v>
+      </c>
       <c r="D28" s="218"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -13161,12 +13291,15 @@
       </c>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A29" t="s">
+        <v>1085</v>
+      </c>
       <c r="D29" s="216">
         <v>6060</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107" t="s">
@@ -13187,7 +13320,10 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="2:17" ht="15.75" thickBot="1">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A30" t="s">
+        <v>1084</v>
+      </c>
       <c r="D30" s="218"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -13205,7 +13341,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1">
       <c r="D31" s="216">
         <v>7070</v>
       </c>
@@ -13228,7 +13364,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1">
       <c r="D32" s="218"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -13247,18 +13383,18 @@
       <c r="D33" s="216">
         <v>8080</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="213" t="s">
         <v>425</v>
       </c>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107" t="s">
+      <c r="F33" s="214"/>
+      <c r="G33" s="214" t="s">
         <v>426</v>
       </c>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107" t="s">
+      <c r="H33" s="214"/>
+      <c r="I33" s="214" t="s">
         <v>414</v>
       </c>
-      <c r="J33" s="107"/>
+      <c r="J33" s="214"/>
       <c r="K33" s="107"/>
       <c r="L33" s="108"/>
       <c r="Q33" s="6"/>
@@ -13281,25 +13417,25 @@
     </row>
     <row r="38" spans="3:17">
       <c r="L38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" spans="3:17">
       <c r="D39" s="37" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="15.75" thickBot="1">
       <c r="M40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="3:17">
       <c r="C41" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D41" s="3"/>
       <c r="G41" s="219" t="s">
@@ -13309,7 +13445,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="3"/>
       <c r="L41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="42" spans="3:17">
@@ -13324,51 +13460,51 @@
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="G43" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
       <c r="L43" t="s">
+        <v>909</v>
+      </c>
+      <c r="M43" t="s">
         <v>910</v>
       </c>
-      <c r="M43" t="s">
-        <v>911</v>
-      </c>
       <c r="P43" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="44" spans="3:17">
       <c r="C44" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="L44" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M44" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P44" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="45" spans="3:17">
       <c r="C45" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>338</v>
       </c>
       <c r="E45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
@@ -13378,14 +13514,16 @@
     <row r="46" spans="3:17">
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="28"/>
+      <c r="G46" s="269" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H46" s="270"/>
       <c r="I46" s="24" t="s">
         <v>433</v>
       </c>
@@ -13397,13 +13535,13 @@
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="G47" s="228" t="s">
-        <v>915</v>
-      </c>
-      <c r="H47" s="310" t="s">
-        <v>447</v>
-      </c>
-      <c r="I47" s="311"/>
-      <c r="J47" s="312"/>
+        <v>914</v>
+      </c>
+      <c r="H47" s="319" t="s">
+        <v>446</v>
+      </c>
+      <c r="I47" s="320"/>
+      <c r="J47" s="321"/>
     </row>
     <row r="48" spans="3:17">
       <c r="F48" t="s">
@@ -13414,29 +13552,29 @@
     </row>
     <row r="49" spans="2:17" ht="15.75" thickBot="1">
       <c r="G49" s="16" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I49" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="50" spans="2:17">
       <c r="C50" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D50" s="3"/>
       <c r="H50" s="40"/>
       <c r="I50" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J50" s="40"/>
     </row>
@@ -13448,7 +13586,7 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J51" s="113" t="s">
         <v>436</v>
@@ -13456,10 +13594,10 @@
     </row>
     <row r="52" spans="2:17">
       <c r="C52" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G52" s="222" t="s">
         <v>437</v>
@@ -13483,19 +13621,19 @@
     </row>
     <row r="53" spans="2:17">
       <c r="C53" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>338</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H53" s="224" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K53" s="6"/>
       <c r="M53" s="4"/>
@@ -13506,29 +13644,29 @@
     <row r="54" spans="2:17" ht="15.75">
       <c r="C54" s="4"/>
       <c r="D54" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E54" s="40"/>
       <c r="F54" s="40" t="s">
         <v>430</v>
       </c>
       <c r="G54" s="226" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H54" s="225"/>
       <c r="I54" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K54" s="6"/>
       <c r="M54" s="4" t="s">
-        <v>441</v>
+        <v>1096</v>
       </c>
       <c r="N54" s="6"/>
       <c r="P54" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q54" s="6"/>
     </row>
@@ -13536,11 +13674,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
       <c r="G55" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K55" s="9"/>
       <c r="M55" s="8"/>
@@ -13554,7 +13692,7 @@
     </row>
     <row r="57" spans="2:17">
       <c r="F57" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -13562,108 +13700,119 @@
         <v>430</v>
       </c>
       <c r="G58" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="2:17">
       <c r="F59" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G59" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="2:17">
       <c r="E63" t="s">
+        <v>885</v>
+      </c>
+      <c r="J63" t="s">
         <v>886</v>
-      </c>
-      <c r="J63" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="64" spans="2:17">
       <c r="B64" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D64" t="s">
+        <v>887</v>
+      </c>
+      <c r="J64" t="s">
         <v>888</v>
-      </c>
-      <c r="J64" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="76" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D65" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J65" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="76" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D66" t="s">
+        <v>896</v>
+      </c>
+      <c r="J66" t="s">
         <v>897</v>
-      </c>
-      <c r="J66" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="76" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D67" t="s">
+        <v>889</v>
+      </c>
+      <c r="J67" t="s">
         <v>890</v>
-      </c>
-      <c r="J67" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="76" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D68" t="s">
+        <v>891</v>
+      </c>
+      <c r="J68" t="s">
         <v>892</v>
-      </c>
-      <c r="J68" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="76" t="s">
+        <v>902</v>
+      </c>
+      <c r="D69" t="s">
         <v>903</v>
       </c>
-      <c r="D69" t="s">
+      <c r="J69" t="s">
         <v>904</v>
-      </c>
-      <c r="J69" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="76" t="s">
+        <v>905</v>
+      </c>
+      <c r="D70" t="s">
         <v>906</v>
       </c>
-      <c r="D70" t="s">
+      <c r="J70" t="s">
         <v>907</v>
       </c>
-      <c r="J70" t="s">
-        <v>908</v>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="76" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="D75" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F75" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="84" spans="3:14" ht="15.75" thickBot="1"/>
@@ -13689,27 +13838,27 @@
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
       <c r="M88" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N88" s="6"/>
     </row>
     <row r="89" spans="3:14">
       <c r="C89" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D89" s="6"/>
       <c r="M89" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N89" s="6"/>
     </row>
     <row r="90" spans="3:14">
       <c r="C90" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D90" s="6"/>
       <c r="F90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="6"/>
@@ -13718,7 +13867,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="6"/>
       <c r="F91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="6"/>
@@ -13727,35 +13876,35 @@
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="G92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="9"/>
     </row>
     <row r="93" spans="3:14">
       <c r="C93" t="s">
+        <v>485</v>
+      </c>
+      <c r="H93" t="s">
+        <v>497</v>
+      </c>
+      <c r="M93" t="s">
         <v>486</v>
-      </c>
-      <c r="H93" t="s">
-        <v>498</v>
-      </c>
-      <c r="M93" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="94" spans="3:14">
       <c r="C94" s="123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D94" s="123"/>
       <c r="E94" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H94" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M94" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="3:14">
@@ -13768,7 +13917,7 @@
       <c r="C96" s="32"/>
       <c r="D96" s="124"/>
       <c r="H96" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M96" s="124"/>
       <c r="N96" s="32"/>
@@ -13799,11 +13948,11 @@
       <c r="E100" s="124"/>
       <c r="F100" s="124"/>
       <c r="G100" s="124" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H100" s="124"/>
       <c r="I100" s="124" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J100" s="124"/>
       <c r="K100" s="124"/>
@@ -13819,11 +13968,11 @@
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
       <c r="G101" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H101" s="32"/>
       <c r="I101" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J101" s="32"/>
       <c r="K101" s="32"/>
@@ -13833,50 +13982,50 @@
     </row>
     <row r="103" spans="3:14">
       <c r="F103" t="s">
+        <v>499</v>
+      </c>
+      <c r="I103" t="s">
         <v>500</v>
-      </c>
-      <c r="I103" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="104" spans="3:14">
       <c r="I104" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="3:14">
       <c r="I105" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="3:14">
       <c r="I106" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="3:14">
       <c r="I107" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="3:14">
       <c r="I108" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="3:14">
       <c r="I109" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="3:14">
       <c r="I110" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" spans="3:14">
       <c r="I111" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="6:9">
@@ -13884,41 +14033,334 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="I114" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="I115" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="117" spans="6:9">
       <c r="I117" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="118" spans="6:9">
       <c r="I118" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119" spans="6:9">
       <c r="I119" t="s">
-        <v>516</v>
-      </c>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15">
+      <c r="D131" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F131" s="38"/>
+      <c r="G131" s="316" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H131" s="316"/>
+      <c r="I131" s="316"/>
+      <c r="J131" s="316"/>
+      <c r="K131" s="316"/>
+      <c r="L131" s="316"/>
+      <c r="M131" s="316"/>
+      <c r="N131" s="316"/>
+      <c r="O131" s="38"/>
+    </row>
+    <row r="132" spans="2:15">
+      <c r="B132" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D132" t="s">
+        <v>195</v>
+      </c>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="164"/>
+      <c r="I132" s="164"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="38"/>
+    </row>
+    <row r="133" spans="2:15">
+      <c r="F133" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G133" s="38"/>
+      <c r="H133" s="164" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I133" s="164"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+    </row>
+    <row r="134" spans="2:15">
+      <c r="D134" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="164"/>
+      <c r="I134" s="164"/>
+      <c r="J134" s="38"/>
+      <c r="K134" s="38"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="38"/>
+    </row>
+    <row r="135" spans="2:15">
+      <c r="F135" s="38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G135" s="38"/>
+      <c r="H135" s="164" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I135" s="164"/>
+      <c r="J135" s="38"/>
+      <c r="K135" s="38"/>
+      <c r="L135" s="38"/>
+      <c r="M135" s="38"/>
+      <c r="N135" s="38"/>
+      <c r="O135" s="38"/>
+    </row>
+    <row r="136" spans="2:15">
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="164"/>
+      <c r="I136" s="164"/>
+      <c r="J136" s="38"/>
+      <c r="K136" s="38"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
+      <c r="N136" s="38"/>
+      <c r="O136" s="38"/>
+    </row>
+    <row r="137" spans="2:15">
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="164"/>
+      <c r="I137" s="164"/>
+      <c r="J137" s="38"/>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+    </row>
+    <row r="138" spans="2:15">
+      <c r="D138" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F138" s="38" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G138" s="38"/>
+      <c r="H138" s="164" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I138" s="164"/>
+      <c r="J138" s="38"/>
+      <c r="K138" s="38"/>
+      <c r="L138" s="38"/>
+      <c r="M138" s="38"/>
+      <c r="N138" s="38"/>
+      <c r="O138" s="38"/>
+    </row>
+    <row r="139" spans="2:15">
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="164"/>
+      <c r="I139" s="164"/>
+      <c r="J139" s="38"/>
+      <c r="K139" s="38"/>
+      <c r="L139" s="38"/>
+      <c r="M139" s="38"/>
+      <c r="N139" s="38"/>
+      <c r="O139" s="38"/>
+    </row>
+    <row r="140" spans="2:15">
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="164"/>
+      <c r="I140" s="164"/>
+      <c r="J140" s="38"/>
+      <c r="K140" s="38"/>
+      <c r="L140" s="38"/>
+      <c r="M140" s="38"/>
+      <c r="N140" s="38"/>
+      <c r="O140" s="38"/>
+    </row>
+    <row r="141" spans="2:15">
+      <c r="F141" s="38"/>
+      <c r="G141" s="317"/>
+      <c r="H141" s="317"/>
+      <c r="I141" s="317"/>
+      <c r="J141" s="317"/>
+      <c r="K141" s="317"/>
+      <c r="L141" s="317"/>
+      <c r="M141" s="317"/>
+      <c r="N141" s="317"/>
+      <c r="O141" s="317"/>
+    </row>
+    <row r="142" spans="2:15">
+      <c r="F142" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="317"/>
+      <c r="H142" s="317"/>
+      <c r="I142" s="317"/>
+      <c r="J142" s="317"/>
+      <c r="K142" s="317"/>
+      <c r="L142" s="317"/>
+      <c r="M142" s="317"/>
+      <c r="N142" s="317"/>
+      <c r="O142" s="317"/>
+    </row>
+    <row r="190" spans="9:9">
+      <c r="I190" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9">
+      <c r="I191" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="193" spans="6:13">
+      <c r="I193" s="32"/>
+    </row>
+    <row r="194" spans="6:13">
+      <c r="I194" s="32"/>
+      <c r="M194" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="195" spans="6:13">
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="32">
+        <v>80</v>
+      </c>
+      <c r="J195" s="32"/>
+      <c r="K195" s="32"/>
+      <c r="L195" s="32"/>
+    </row>
+    <row r="196" spans="6:13">
+      <c r="F196" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M196" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="197" spans="6:13">
+      <c r="F197" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="198" spans="6:13">
+      <c r="F198" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M198" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="199" spans="6:13">
+      <c r="F199" s="40"/>
+      <c r="H199" s="40"/>
+      <c r="J199" s="40"/>
+      <c r="L199" s="40"/>
+    </row>
+    <row r="200" spans="6:13">
+      <c r="F200" s="40"/>
+      <c r="H200" s="40"/>
+      <c r="J200" s="40"/>
+      <c r="L200" s="40"/>
+    </row>
+    <row r="201" spans="6:13">
+      <c r="F201" s="40" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H201" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J201" s="40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L201" s="40" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="202" spans="6:13">
+      <c r="F202" s="40"/>
+      <c r="H202" s="40"/>
+      <c r="J202" s="40"/>
+      <c r="L202" s="40"/>
+    </row>
+    <row r="203" spans="6:13">
+      <c r="F203" s="40"/>
+      <c r="H203" s="40"/>
+      <c r="J203" s="40"/>
+      <c r="L203" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="G131:N131"/>
+    <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="E6:F6"/>
@@ -13961,70 +14403,70 @@
   <sheetData>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" t="s">
         <v>519</v>
       </c>
-      <c r="D3" t="s">
-        <v>520</v>
-      </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>226</v>
@@ -14032,28 +14474,28 @@
     </row>
     <row r="6" spans="1:17">
       <c r="F6" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="F7" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="M7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O7" s="154">
         <v>0.41666666666666669</v>
@@ -14061,80 +14503,80 @@
     </row>
     <row r="8" spans="1:17">
       <c r="F8" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="M8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="I9" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="F10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="F11" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>226</v>
       </c>
       <c r="P12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="P13" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="F14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G14" s="154">
         <v>0.375</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>226</v>
@@ -14142,44 +14584,44 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="F18" t="s">
+        <v>455</v>
+      </c>
+      <c r="I18" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="I18" s="114" t="s">
+      <c r="L18" t="s">
         <v>457</v>
-      </c>
-      <c r="L18" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="19" spans="3:14">
       <c r="F19" s="115" t="s">
+        <v>458</v>
+      </c>
+      <c r="I19" t="s">
         <v>459</v>
       </c>
-      <c r="I19" t="s">
-        <v>460</v>
-      </c>
       <c r="L19" s="115" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="318" t="s">
+      <c r="D20" s="327" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" s="327"/>
+      <c r="F20" s="327"/>
+      <c r="G20" s="327"/>
+      <c r="H20" s="327"/>
+      <c r="I20" s="38" t="s">
         <v>461</v>
-      </c>
-      <c r="E20" s="318"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="38" t="s">
-        <v>462</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
@@ -14188,71 +14630,71 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="319">
+      <c r="C21" s="328">
         <v>43909</v>
       </c>
-      <c r="D21" s="318"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="318"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="318"/>
+      <c r="D21" s="327"/>
+      <c r="E21" s="327"/>
+      <c r="F21" s="327"/>
+      <c r="G21" s="327"/>
+      <c r="H21" s="327"/>
       <c r="I21" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" s="327"/>
+      <c r="K21" s="327"/>
+      <c r="L21" s="327" t="s">
         <v>463</v>
       </c>
-      <c r="J21" s="318"/>
-      <c r="K21" s="318"/>
-      <c r="L21" s="318" t="s">
+      <c r="M21" s="327"/>
+      <c r="N21" s="327"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="328"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="327"/>
+      <c r="I22" s="283" t="s">
         <v>464</v>
       </c>
-      <c r="M21" s="318"/>
-      <c r="N21" s="318"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="319"/>
-      <c r="D22" s="318"/>
-      <c r="E22" s="318"/>
-      <c r="F22" s="318"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="318"/>
-      <c r="I22" s="268" t="s">
+      <c r="J22" s="327"/>
+      <c r="K22" s="327"/>
+      <c r="L22" s="117" t="s">
         <v>465</v>
-      </c>
-      <c r="J22" s="318"/>
-      <c r="K22" s="318"/>
-      <c r="L22" s="117" t="s">
-        <v>466</v>
       </c>
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="319"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="318"/>
-      <c r="F23" s="318"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="318"/>
-      <c r="I23" s="268"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="318"/>
-      <c r="L23" s="318" t="s">
-        <v>467</v>
-      </c>
-      <c r="M23" s="318"/>
-      <c r="N23" s="318"/>
+      <c r="C23" s="328"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="327"/>
+      <c r="F23" s="327"/>
+      <c r="G23" s="327"/>
+      <c r="H23" s="327"/>
+      <c r="I23" s="283"/>
+      <c r="J23" s="327"/>
+      <c r="K23" s="327"/>
+      <c r="L23" s="327" t="s">
+        <v>466</v>
+      </c>
+      <c r="M23" s="327"/>
+      <c r="N23" s="327"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="319"/>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="268"/>
-      <c r="J24" s="318"/>
-      <c r="K24" s="318"/>
+      <c r="C24" s="328"/>
+      <c r="D24" s="327"/>
+      <c r="E24" s="327"/>
+      <c r="F24" s="327"/>
+      <c r="G24" s="327"/>
+      <c r="H24" s="327"/>
+      <c r="I24" s="283"/>
+      <c r="J24" s="327"/>
+      <c r="K24" s="327"/>
       <c r="L24" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -14261,15 +14703,15 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="318" t="s">
+      <c r="D25" s="327" t="s">
+        <v>467</v>
+      </c>
+      <c r="E25" s="327"/>
+      <c r="F25" s="327"/>
+      <c r="G25" s="327"/>
+      <c r="H25" s="327"/>
+      <c r="I25" s="38" t="s">
         <v>468</v>
-      </c>
-      <c r="E25" s="318"/>
-      <c r="F25" s="318"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="318"/>
-      <c r="I25" s="38" t="s">
-        <v>469</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -14281,66 +14723,66 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="320"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="321"/>
-      <c r="G26" s="321"/>
-      <c r="H26" s="322"/>
-      <c r="I26" s="327" t="s">
+      <c r="D26" s="329"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="331"/>
+      <c r="I26" s="336" t="s">
+        <v>464</v>
+      </c>
+      <c r="J26" s="329"/>
+      <c r="K26" s="331"/>
+      <c r="L26" s="117" t="s">
         <v>465</v>
-      </c>
-      <c r="J26" s="320"/>
-      <c r="K26" s="322"/>
-      <c r="L26" s="117" t="s">
-        <v>466</v>
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="317"/>
-      <c r="G27" s="317"/>
-      <c r="H27" s="324"/>
-      <c r="I27" s="328"/>
-      <c r="J27" s="323"/>
-      <c r="K27" s="324"/>
-      <c r="L27" s="318" t="s">
-        <v>470</v>
-      </c>
-      <c r="M27" s="318"/>
-      <c r="N27" s="318"/>
+      <c r="D27" s="332"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="326"/>
+      <c r="H27" s="333"/>
+      <c r="I27" s="337"/>
+      <c r="J27" s="332"/>
+      <c r="K27" s="333"/>
+      <c r="L27" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="M27" s="327"/>
+      <c r="N27" s="327"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="317"/>
-      <c r="F28" s="317"/>
-      <c r="G28" s="317"/>
-      <c r="H28" s="324"/>
-      <c r="I28" s="328"/>
-      <c r="J28" s="323"/>
-      <c r="K28" s="324"/>
+      <c r="D28" s="332"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="333"/>
+      <c r="I28" s="337"/>
+      <c r="J28" s="332"/>
+      <c r="K28" s="333"/>
       <c r="L28" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="325"/>
-      <c r="E29" s="308"/>
-      <c r="F29" s="308"/>
-      <c r="G29" s="308"/>
-      <c r="H29" s="326"/>
-      <c r="I29" s="329"/>
-      <c r="J29" s="325"/>
-      <c r="K29" s="326"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="315"/>
+      <c r="F29" s="315"/>
+      <c r="G29" s="315"/>
+      <c r="H29" s="335"/>
+      <c r="I29" s="338"/>
+      <c r="J29" s="334"/>
+      <c r="K29" s="335"/>
       <c r="L29" s="119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -14361,40 +14803,40 @@
     </row>
     <row r="31" spans="3:14">
       <c r="F31" t="s">
+        <v>455</v>
+      </c>
+      <c r="I31" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="I31" s="114" t="s">
+      <c r="L31" t="s">
         <v>457</v>
-      </c>
-      <c r="L31" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="E32" s="121"/>
       <c r="F32" s="115" t="s">
+        <v>458</v>
+      </c>
+      <c r="I32" t="s">
         <v>459</v>
       </c>
-      <c r="I32" t="s">
-        <v>460</v>
-      </c>
       <c r="L32" s="115" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="318" t="s">
+      <c r="D33" s="327" t="s">
+        <v>460</v>
+      </c>
+      <c r="E33" s="327"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="327"/>
+      <c r="I33" s="38" t="s">
         <v>461</v>
-      </c>
-      <c r="E33" s="318"/>
-      <c r="F33" s="318"/>
-      <c r="G33" s="318"/>
-      <c r="H33" s="318"/>
-      <c r="I33" s="38" t="s">
-        <v>462</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
@@ -14403,67 +14845,67 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="319">
+      <c r="C34" s="328">
         <v>43909</v>
       </c>
-      <c r="D34" s="318"/>
-      <c r="E34" s="318"/>
-      <c r="F34" s="318"/>
-      <c r="G34" s="318"/>
-      <c r="H34" s="318"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="318"/>
-      <c r="K34" s="318"/>
-      <c r="L34" s="318" t="s">
-        <v>464</v>
-      </c>
-      <c r="M34" s="318"/>
-      <c r="N34" s="318"/>
+      <c r="D34" s="327"/>
+      <c r="E34" s="327"/>
+      <c r="F34" s="327"/>
+      <c r="G34" s="327"/>
+      <c r="H34" s="327"/>
+      <c r="I34" s="339"/>
+      <c r="J34" s="327"/>
+      <c r="K34" s="327"/>
+      <c r="L34" s="327" t="s">
+        <v>463</v>
+      </c>
+      <c r="M34" s="327"/>
+      <c r="N34" s="327"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="319"/>
-      <c r="D35" s="318"/>
-      <c r="E35" s="318"/>
-      <c r="F35" s="318"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="318"/>
-      <c r="I35" s="331"/>
-      <c r="J35" s="318"/>
-      <c r="K35" s="318"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="327"/>
+      <c r="I35" s="340"/>
+      <c r="J35" s="327"/>
+      <c r="K35" s="327"/>
       <c r="L35" s="117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="319"/>
-      <c r="D36" s="318"/>
-      <c r="E36" s="318"/>
-      <c r="F36" s="318"/>
-      <c r="G36" s="318"/>
-      <c r="H36" s="318"/>
-      <c r="I36" s="331"/>
-      <c r="J36" s="318"/>
-      <c r="K36" s="318"/>
-      <c r="L36" s="318" t="s">
-        <v>467</v>
-      </c>
-      <c r="M36" s="318"/>
-      <c r="N36" s="318"/>
+      <c r="C36" s="328"/>
+      <c r="D36" s="327"/>
+      <c r="E36" s="327"/>
+      <c r="F36" s="327"/>
+      <c r="G36" s="327"/>
+      <c r="H36" s="327"/>
+      <c r="I36" s="340"/>
+      <c r="J36" s="327"/>
+      <c r="K36" s="327"/>
+      <c r="L36" s="327" t="s">
+        <v>466</v>
+      </c>
+      <c r="M36" s="327"/>
+      <c r="N36" s="327"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="319"/>
-      <c r="D37" s="318"/>
-      <c r="E37" s="318"/>
-      <c r="F37" s="318"/>
-      <c r="G37" s="318"/>
-      <c r="H37" s="318"/>
-      <c r="I37" s="332"/>
-      <c r="J37" s="318"/>
-      <c r="K37" s="318"/>
+      <c r="C37" s="328"/>
+      <c r="D37" s="327"/>
+      <c r="E37" s="327"/>
+      <c r="F37" s="327"/>
+      <c r="G37" s="327"/>
+      <c r="H37" s="327"/>
+      <c r="I37" s="341"/>
+      <c r="J37" s="327"/>
+      <c r="K37" s="327"/>
       <c r="L37" s="118" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -14472,15 +14914,15 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="318" t="s">
+      <c r="D38" s="327" t="s">
+        <v>467</v>
+      </c>
+      <c r="E38" s="327"/>
+      <c r="F38" s="327"/>
+      <c r="G38" s="327"/>
+      <c r="H38" s="327"/>
+      <c r="I38" s="38" t="s">
         <v>468</v>
-      </c>
-      <c r="E38" s="318"/>
-      <c r="F38" s="318"/>
-      <c r="G38" s="318"/>
-      <c r="H38" s="318"/>
-      <c r="I38" s="38" t="s">
-        <v>469</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
@@ -14492,66 +14934,66 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="320"/>
-      <c r="E39" s="321"/>
-      <c r="F39" s="321"/>
-      <c r="G39" s="321"/>
-      <c r="H39" s="322"/>
-      <c r="I39" s="327"/>
-      <c r="J39" s="320"/>
-      <c r="K39" s="322"/>
+      <c r="D39" s="329"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="331"/>
+      <c r="I39" s="336"/>
+      <c r="J39" s="329"/>
+      <c r="K39" s="331"/>
       <c r="L39" s="117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="323"/>
-      <c r="E40" s="317"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="324"/>
-      <c r="I40" s="328"/>
-      <c r="J40" s="323"/>
-      <c r="K40" s="324"/>
-      <c r="L40" s="318" t="s">
-        <v>470</v>
-      </c>
-      <c r="M40" s="318"/>
-      <c r="N40" s="318"/>
+      <c r="D40" s="332"/>
+      <c r="E40" s="326"/>
+      <c r="F40" s="326"/>
+      <c r="G40" s="326"/>
+      <c r="H40" s="333"/>
+      <c r="I40" s="337"/>
+      <c r="J40" s="332"/>
+      <c r="K40" s="333"/>
+      <c r="L40" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="M40" s="327"/>
+      <c r="N40" s="327"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="323"/>
-      <c r="E41" s="317"/>
-      <c r="F41" s="317"/>
-      <c r="G41" s="317"/>
-      <c r="H41" s="324"/>
-      <c r="I41" s="329"/>
-      <c r="J41" s="323"/>
-      <c r="K41" s="324"/>
+      <c r="D41" s="332"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="326"/>
+      <c r="G41" s="326"/>
+      <c r="H41" s="333"/>
+      <c r="I41" s="338"/>
+      <c r="J41" s="332"/>
+      <c r="K41" s="333"/>
       <c r="L41" s="118" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="325"/>
-      <c r="E42" s="308"/>
-      <c r="F42" s="308"/>
-      <c r="G42" s="308"/>
-      <c r="H42" s="326"/>
+      <c r="D42" s="334"/>
+      <c r="E42" s="315"/>
+      <c r="F42" s="315"/>
+      <c r="G42" s="315"/>
+      <c r="H42" s="335"/>
       <c r="I42" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
+        <v>462</v>
+      </c>
+      <c r="J42" s="334"/>
+      <c r="K42" s="335"/>
       <c r="L42" s="119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -14586,24 +15028,24 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="D48" t="s">
+        <v>472</v>
+      </c>
+      <c r="M48" t="s">
         <v>473</v>
-      </c>
-      <c r="M48" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="49" spans="3:17">
       <c r="G49" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H49" s="3"/>
       <c r="M49" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -14614,7 +15056,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="5"/>
@@ -14661,10 +15103,10 @@
     </row>
     <row r="55" spans="3:17">
       <c r="D55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J55" s="3"/>
     </row>
@@ -14672,7 +15114,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="9"/>
       <c r="M56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="15.75" thickBot="1">
@@ -14685,11 +15127,11 @@
     </row>
     <row r="58" spans="3:17">
       <c r="I58" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M58" s="22"/>
       <c r="N58" s="23"/>
@@ -14716,11 +15158,11 @@
     </row>
     <row r="61" spans="3:17">
       <c r="I61" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M61" s="22"/>
       <c r="N61" s="23"/>
@@ -14741,11 +15183,11 @@
     </row>
     <row r="64" spans="3:17">
       <c r="I64" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="23"/>
@@ -14778,10 +15220,10 @@
     </row>
     <row r="82" spans="3:13">
       <c r="C82" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F82" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H82" s="128"/>
     </row>
@@ -14810,10 +15252,10 @@
     </row>
     <row r="88" spans="3:13">
       <c r="E88" t="s">
+        <v>535</v>
+      </c>
+      <c r="H88" t="s">
         <v>536</v>
-      </c>
-      <c r="H88" t="s">
-        <v>537</v>
       </c>
       <c r="J88" s="127">
         <v>44134</v>
@@ -14832,28 +15274,28 @@
     </row>
     <row r="92" spans="3:13">
       <c r="L92" s="126" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="93" spans="3:13">
       <c r="L93" s="126" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="3:13">
       <c r="L94" s="126" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="3:13">
       <c r="G95" t="s">
+        <v>535</v>
+      </c>
+      <c r="J95" t="s">
         <v>536</v>
-      </c>
-      <c r="J95" t="s">
-        <v>537</v>
       </c>
       <c r="L95" s="127">
         <v>44165</v>
@@ -14933,22 +15375,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="339" t="s">
+      <c r="E3" s="348" t="s">
+        <v>522</v>
+      </c>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339" t="s">
+      <c r="H3" s="348"/>
+      <c r="I3" s="348"/>
+      <c r="J3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="348"/>
+      <c r="M3" s="348" t="s">
         <v>524</v>
       </c>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="339"/>
-      <c r="K3" s="339"/>
-      <c r="L3" s="339"/>
-      <c r="M3" s="339" t="s">
-        <v>525</v>
-      </c>
-      <c r="N3" s="339"/>
+      <c r="N3" s="348"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -14959,15 +15401,15 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="340" t="s">
-        <v>526</v>
+      <c r="E4" s="349" t="s">
+        <v>525</v>
       </c>
       <c r="F4" s="111"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K4" s="112"/>
       <c r="L4" s="112"/>
@@ -14987,26 +15429,26 @@
         <v>182</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="343" t="s">
+      <c r="E5" s="350"/>
+      <c r="F5" s="352" t="s">
+        <v>527</v>
+      </c>
+      <c r="G5" s="355" t="s">
         <v>528</v>
       </c>
-      <c r="G5" s="346" t="s">
+      <c r="H5" s="356"/>
+      <c r="I5" s="357" t="s">
         <v>529</v>
       </c>
-      <c r="H5" s="347"/>
-      <c r="I5" s="348" t="s">
+      <c r="J5" s="358"/>
+      <c r="K5" s="355" t="s">
         <v>530</v>
       </c>
-      <c r="J5" s="349"/>
-      <c r="K5" s="346" t="s">
+      <c r="L5" s="356"/>
+      <c r="M5" s="363" t="s">
         <v>531</v>
       </c>
-      <c r="L5" s="347"/>
-      <c r="M5" s="354" t="s">
-        <v>532</v>
-      </c>
-      <c r="N5" s="355"/>
+      <c r="N5" s="364"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -15017,16 +15459,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="341"/>
-      <c r="F6" s="344"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="350"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="279"/>
-      <c r="M6" s="356"/>
-      <c r="N6" s="357"/>
+      <c r="E6" s="350"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="365"/>
+      <c r="N6" s="366"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>183</v>
@@ -15043,16 +15485,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="341"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="350"/>
-      <c r="J7" s="351"/>
-      <c r="K7" s="287"/>
-      <c r="L7" s="279"/>
-      <c r="M7" s="356"/>
-      <c r="N7" s="357"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="353"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="359"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="365"/>
+      <c r="N7" s="366"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -15071,16 +15513,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="279"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="351"/>
-      <c r="K8" s="287"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="356"/>
-      <c r="N8" s="357"/>
+      <c r="E8" s="350"/>
+      <c r="F8" s="353"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="359"/>
+      <c r="J8" s="360"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="365"/>
+      <c r="N8" s="366"/>
       <c r="O8" s="5" t="s">
         <v>188</v>
       </c>
@@ -15095,16 +15537,16 @@
         <v>191</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="341"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="279"/>
-      <c r="M9" s="356"/>
-      <c r="N9" s="357"/>
+      <c r="E9" s="350"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="360"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="282"/>
+      <c r="M9" s="365"/>
+      <c r="N9" s="366"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -15118,19 +15560,19 @@
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="341"/>
-      <c r="F10" s="344"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="350"/>
-      <c r="J10" s="351"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="279"/>
-      <c r="M10" s="356"/>
-      <c r="N10" s="357"/>
+      <c r="E10" s="350"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="359"/>
+      <c r="J10" s="360"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="282"/>
+      <c r="M10" s="365"/>
+      <c r="N10" s="366"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -15143,16 +15585,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="279"/>
-      <c r="I11" s="350"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="279"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="357"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="359"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="282"/>
+      <c r="M11" s="365"/>
+      <c r="N11" s="366"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -15163,16 +15605,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="341"/>
-      <c r="F12" s="344"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="279"/>
-      <c r="I12" s="350"/>
-      <c r="J12" s="351"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="279"/>
-      <c r="M12" s="356"/>
-      <c r="N12" s="357"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="353"/>
+      <c r="G12" s="294"/>
+      <c r="H12" s="282"/>
+      <c r="I12" s="359"/>
+      <c r="J12" s="360"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="282"/>
+      <c r="M12" s="365"/>
+      <c r="N12" s="366"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -15185,16 +15627,16 @@
         <v>193</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="341"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="279"/>
-      <c r="I13" s="350"/>
-      <c r="J13" s="351"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="279"/>
-      <c r="M13" s="356"/>
-      <c r="N13" s="357"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="353"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="359"/>
+      <c r="J13" s="360"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="282"/>
+      <c r="M13" s="365"/>
+      <c r="N13" s="366"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -15205,16 +15647,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="341"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="350"/>
-      <c r="J14" s="351"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="279"/>
-      <c r="M14" s="356"/>
-      <c r="N14" s="357"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="353"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="359"/>
+      <c r="J14" s="360"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="282"/>
+      <c r="M14" s="365"/>
+      <c r="N14" s="366"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -15225,16 +15667,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="341"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="350"/>
-      <c r="J15" s="351"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="356"/>
-      <c r="N15" s="357"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="353"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="359"/>
+      <c r="J15" s="360"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="282"/>
+      <c r="M15" s="365"/>
+      <c r="N15" s="366"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -15245,16 +15687,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="341"/>
-      <c r="F16" s="344"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="350"/>
-      <c r="J16" s="351"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="279"/>
-      <c r="M16" s="356"/>
-      <c r="N16" s="357"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="353"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="359"/>
+      <c r="J16" s="360"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="282"/>
+      <c r="M16" s="365"/>
+      <c r="N16" s="366"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -15267,16 +15709,16 @@
         <v>194</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="341"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="350"/>
-      <c r="J17" s="351"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="356"/>
-      <c r="N17" s="357"/>
+      <c r="E17" s="350"/>
+      <c r="F17" s="353"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="359"/>
+      <c r="J17" s="360"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="282"/>
+      <c r="M17" s="365"/>
+      <c r="N17" s="366"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -15287,16 +15729,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="345"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="352"/>
-      <c r="J18" s="353"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="291"/>
-      <c r="M18" s="358"/>
-      <c r="N18" s="359"/>
+      <c r="E18" s="351"/>
+      <c r="F18" s="354"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="298"/>
+      <c r="I18" s="361"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="296"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="367"/>
+      <c r="N18" s="368"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -15325,26 +15767,26 @@
     </row>
     <row r="20" spans="2:22" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="292" t="s">
+      <c r="C20" s="299" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="293"/>
+      <c r="D20" s="300"/>
       <c r="E20" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="292" t="s">
+      <c r="F20" s="299" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="293"/>
-      <c r="M20" s="292" t="s">
-        <v>533</v>
-      </c>
-      <c r="N20" s="293"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="300"/>
+      <c r="M20" s="299" t="s">
+        <v>532</v>
+      </c>
+      <c r="N20" s="300"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -15373,32 +15815,32 @@
     </row>
     <row r="23" spans="2:22">
       <c r="E23" t="s">
+        <v>929</v>
+      </c>
+      <c r="H23" t="s">
         <v>930</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>931</v>
-      </c>
-      <c r="J23" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="E27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="E30" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="31" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="32" spans="2:22">
       <c r="H32" s="187" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I32" s="193" t="s">
         <v>150</v>
@@ -15421,11 +15863,11 @@
     </row>
     <row r="33" spans="2:22" ht="15.75" thickBot="1">
       <c r="D33" s="187" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E33" s="187"/>
       <c r="H33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="24"/>
@@ -15443,20 +15885,20 @@
     </row>
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="B34" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="147" t="s">
         <v>182</v>
       </c>
       <c r="K34" s="148"/>
-      <c r="L34" s="306"/>
-      <c r="M34" s="306"/>
-      <c r="N34" s="306"/>
-      <c r="O34" s="306"/>
-      <c r="P34" s="306"/>
-      <c r="Q34" s="306"/>
-      <c r="R34" s="307"/>
+      <c r="L34" s="313"/>
+      <c r="M34" s="313"/>
+      <c r="N34" s="313"/>
+      <c r="O34" s="313"/>
+      <c r="P34" s="313"/>
+      <c r="Q34" s="313"/>
+      <c r="R34" s="314"/>
       <c r="U34" s="40" t="s">
         <v>180</v>
       </c>
@@ -15494,11 +15936,11 @@
       </c>
       <c r="K36" s="71"/>
       <c r="L36" s="134" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -15557,8 +15999,8 @@
       <c r="K38" s="188"/>
       <c r="L38" s="134"/>
       <c r="M38" s="82"/>
-      <c r="N38" s="333"/>
-      <c r="O38" s="334"/>
+      <c r="N38" s="342"/>
+      <c r="O38" s="343"/>
       <c r="P38" s="189"/>
       <c r="Q38" s="190"/>
       <c r="R38" s="82"/>
@@ -15584,10 +16026,10 @@
         <v>184</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="80"/>
@@ -15596,8 +16038,8 @@
       <c r="K39" s="24"/>
       <c r="L39" s="134"/>
       <c r="M39" s="82"/>
-      <c r="N39" s="335"/>
-      <c r="O39" s="336"/>
+      <c r="N39" s="344"/>
+      <c r="O39" s="345"/>
       <c r="P39" s="189"/>
       <c r="Q39" s="191"/>
       <c r="R39" s="33"/>
@@ -15614,18 +16056,18 @@
         <v>212</v>
       </c>
       <c r="E40" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I40" s="198"/>
       <c r="J40" s="196"/>
       <c r="K40" s="24"/>
       <c r="L40" s="134"/>
       <c r="M40" s="229"/>
-      <c r="N40" s="335"/>
-      <c r="O40" s="336"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="189"/>
       <c r="Q40" s="191"/>
       <c r="R40" s="82"/>
@@ -15639,7 +16081,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="195" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F41" s="6"/>
       <c r="I41" s="198"/>
@@ -15647,8 +16089,8 @@
       <c r="K41" s="71"/>
       <c r="L41" s="134"/>
       <c r="M41" s="229"/>
-      <c r="N41" s="335"/>
-      <c r="O41" s="336"/>
+      <c r="N41" s="344"/>
+      <c r="O41" s="345"/>
       <c r="P41" s="189"/>
       <c r="Q41" s="191"/>
       <c r="R41" s="82"/>
@@ -15670,8 +16112,8 @@
       <c r="K42" s="188"/>
       <c r="L42" s="134"/>
       <c r="M42" s="82"/>
-      <c r="N42" s="335"/>
-      <c r="O42" s="336"/>
+      <c r="N42" s="344"/>
+      <c r="O42" s="345"/>
       <c r="P42" s="189"/>
       <c r="Q42" s="191"/>
       <c r="R42" s="82"/>
@@ -15680,13 +16122,13 @@
       <c r="V42" s="38"/>
     </row>
     <row r="43" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B43" s="297" t="s">
-        <v>696</v>
-      </c>
-      <c r="C43" s="298"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="298"/>
-      <c r="F43" s="299"/>
+      <c r="B43" s="304" t="s">
+        <v>695</v>
+      </c>
+      <c r="C43" s="305"/>
+      <c r="D43" s="305"/>
+      <c r="E43" s="305"/>
+      <c r="F43" s="306"/>
       <c r="I43" s="198"/>
       <c r="J43" s="134" t="s">
         <v>268</v>
@@ -15694,8 +16136,8 @@
       <c r="K43" s="24"/>
       <c r="L43" s="134"/>
       <c r="M43" s="82"/>
-      <c r="N43" s="337"/>
-      <c r="O43" s="338"/>
+      <c r="N43" s="346"/>
+      <c r="O43" s="347"/>
       <c r="P43" s="189"/>
       <c r="Q43" s="192"/>
       <c r="R43" s="82"/>
@@ -15704,11 +16146,11 @@
       </c>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="300"/>
-      <c r="C44" s="301"/>
-      <c r="D44" s="301"/>
-      <c r="E44" s="301"/>
-      <c r="F44" s="302"/>
+      <c r="B44" s="307"/>
+      <c r="C44" s="308"/>
+      <c r="D44" s="308"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="309"/>
       <c r="I44" s="198"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
@@ -15724,11 +16166,11 @@
       </c>
     </row>
     <row r="45" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B45" s="300"/>
-      <c r="C45" s="301"/>
-      <c r="D45" s="301"/>
-      <c r="E45" s="301"/>
-      <c r="F45" s="302"/>
+      <c r="B45" s="307"/>
+      <c r="C45" s="308"/>
+      <c r="D45" s="308"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="309"/>
       <c r="I45" s="198"/>
       <c r="J45" s="8"/>
       <c r="K45" s="10"/>
@@ -15744,11 +16186,11 @@
       </c>
     </row>
     <row r="46" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B46" s="303"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="305"/>
+      <c r="B46" s="310"/>
+      <c r="C46" s="311"/>
+      <c r="D46" s="311"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="312"/>
       <c r="G46" s="24"/>
       <c r="I46" s="198"/>
       <c r="J46" s="4" t="s">
@@ -15770,14 +16212,14 @@
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="8"/>
@@ -15861,7 +16303,7 @@
       <c r="G51" s="129"/>
       <c r="H51" s="129"/>
       <c r="M51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>360</v>
@@ -15878,18 +16320,18 @@
       <c r="G52" s="129"/>
       <c r="H52" s="129"/>
       <c r="M52" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U52" s="9"/>
     </row>
     <row r="56" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="57" spans="2:22" ht="15.75" thickBot="1">
       <c r="G57" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -15910,7 +16352,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15942,7 +16384,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="5"/>
       <c r="N60" s="231" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="3"/>
@@ -15973,7 +16415,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="4"/>
       <c r="O62" s="230" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -15998,7 +16440,7 @@
     </row>
     <row r="64" spans="2:22">
       <c r="C64" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -16009,7 +16451,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="4"/>
       <c r="O64" s="38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -16025,7 +16467,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="4"/>
       <c r="O65" s="38" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -16039,11 +16481,11 @@
       <c r="K66" s="5"/>
       <c r="L66" s="4"/>
       <c r="M66" s="200" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="38" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
@@ -16194,14 +16636,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="360" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
+      <c r="B1" s="369" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
       <c r="I1" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J1" s="40"/>
     </row>
@@ -16219,7 +16661,7 @@
         <v>323</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J2" s="40"/>
     </row>
@@ -16231,16 +16673,16 @@
         <v>330</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J3" s="40"/>
     </row>
@@ -16252,19 +16694,19 @@
         <v>337</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="I4" t="s">
         <v>553</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="I4" t="s">
-        <v>554</v>
-      </c>
       <c r="J4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16272,19 +16714,19 @@
         <v>32</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D5" s="70" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>552</v>
-      </c>
       <c r="G5" s="129" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16293,10 +16735,10 @@
       <c r="D6" s="70"/>
       <c r="E6" s="153"/>
       <c r="G6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16305,64 +16747,64 @@
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="J7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="317"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="317"/>
-      <c r="E8" s="317"/>
+      <c r="B8" s="326"/>
+      <c r="C8" s="326"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
       <c r="J8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="C12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I14" t="s">
         <v>239</v>
@@ -16370,56 +16812,56 @@
     </row>
     <row r="15" spans="1:10">
       <c r="J15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="C17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="F24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="C26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="C28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -16447,32 +16889,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C2" s="362" t="s">
-        <v>579</v>
-      </c>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
-      <c r="L2" s="362"/>
+      <c r="C2" s="371" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="371"/>
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="313" t="s">
+      <c r="E3" s="322" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="266"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="282"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="289"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="4" t="s">
@@ -16498,30 +16940,30 @@
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="361" t="s">
+      <c r="N5" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="O5" s="361"/>
-      <c r="P5" s="361"/>
+      <c r="O5" s="370"/>
+      <c r="P5" s="370"/>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -16529,7 +16971,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F7" s="82"/>
       <c r="G7" s="134"/>
@@ -16537,7 +16979,7 @@
       <c r="I7" s="82"/>
       <c r="J7" s="134"/>
       <c r="K7" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
@@ -16556,20 +16998,20 @@
         <v>191</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="363" t="s">
+      <c r="E8" s="372" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="373"/>
+      <c r="G8" s="372" t="s">
         <v>580</v>
       </c>
-      <c r="F8" s="364"/>
-      <c r="G8" s="363" t="s">
+      <c r="H8" s="374"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="372" t="s">
         <v>581</v>
       </c>
-      <c r="H8" s="365"/>
-      <c r="I8" s="364"/>
-      <c r="J8" s="363" t="s">
-        <v>582</v>
-      </c>
-      <c r="K8" s="365"/>
-      <c r="L8" s="364"/>
+      <c r="K8" s="374"/>
+      <c r="L8" s="373"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -16586,14 +17028,14 @@
     <row r="9" spans="3:16" ht="15" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="363"/>
-      <c r="H9" s="365"/>
-      <c r="I9" s="364"/>
-      <c r="J9" s="363"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="364"/>
+      <c r="E9" s="372"/>
+      <c r="F9" s="373"/>
+      <c r="G9" s="372"/>
+      <c r="H9" s="374"/>
+      <c r="I9" s="373"/>
+      <c r="J9" s="372"/>
+      <c r="K9" s="374"/>
+      <c r="L9" s="373"/>
       <c r="M9" s="5" t="s">
         <v>188</v>
       </c>
@@ -16601,7 +17043,7 @@
         <v>30</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P9" s="70" t="s">
         <v>190</v>
@@ -16610,14 +17052,14 @@
     <row r="10" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="364"/>
-      <c r="G10" s="363"/>
-      <c r="H10" s="365"/>
-      <c r="I10" s="364"/>
-      <c r="J10" s="363"/>
-      <c r="K10" s="365"/>
-      <c r="L10" s="364"/>
+      <c r="E10" s="372"/>
+      <c r="F10" s="373"/>
+      <c r="G10" s="372"/>
+      <c r="H10" s="374"/>
+      <c r="I10" s="373"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="374"/>
+      <c r="L10" s="373"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -16628,14 +17070,14 @@
     <row r="11" spans="3:16" ht="15" customHeight="1">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="363"/>
-      <c r="F11" s="364"/>
-      <c r="G11" s="363"/>
-      <c r="H11" s="365"/>
-      <c r="I11" s="364"/>
-      <c r="J11" s="363"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="364"/>
+      <c r="E11" s="372"/>
+      <c r="F11" s="373"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="374"/>
+      <c r="I11" s="373"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="373"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -16652,12 +17094,12 @@
       <c r="F12" s="82"/>
       <c r="G12" s="134"/>
       <c r="H12" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="134"/>
       <c r="K12" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
@@ -16685,7 +17127,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="141" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
@@ -16699,11 +17141,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
@@ -16717,11 +17159,11 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="143" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="143" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
@@ -16732,18 +17174,18 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="366" t="s">
+      <c r="E17" s="375" t="s">
+        <v>582</v>
+      </c>
+      <c r="F17" s="376"/>
+      <c r="G17" s="376"/>
+      <c r="H17" s="376"/>
+      <c r="I17" s="376"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="377"/>
+      <c r="M17" s="40" t="s">
         <v>583</v>
-      </c>
-      <c r="F17" s="367"/>
-      <c r="G17" s="367"/>
-      <c r="H17" s="367"/>
-      <c r="I17" s="367"/>
-      <c r="J17" s="367"/>
-      <c r="K17" s="367"/>
-      <c r="L17" s="368"/>
-      <c r="M17" s="40" t="s">
-        <v>584</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
@@ -16759,22 +17201,22 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="292" t="s">
+      <c r="C19" s="299" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="293"/>
-      <c r="E19" s="292" t="s">
+      <c r="D19" s="300"/>
+      <c r="E19" s="299" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="293"/>
-      <c r="G19" s="292" t="s">
+      <c r="F19" s="300"/>
+      <c r="G19" s="299" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="293"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -16825,7 +17267,7 @@
     <row r="4" spans="1:17">
       <c r="H4" s="4"/>
       <c r="I4" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -16862,13 +17304,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G7" t="s">
         <v>273</v>
@@ -16876,12 +17318,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
@@ -16893,19 +17335,19 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>30</v>
@@ -16918,17 +17360,17 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
@@ -16948,7 +17390,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -16969,15 +17411,15 @@
         <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
@@ -16995,7 +17437,7 @@
         <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -17044,7 +17486,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -17074,26 +17516,26 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" t="s">
         <v>334</v>
       </c>
       <c r="D18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
       <c r="M18" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="5"/>
@@ -17105,7 +17547,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C19" t="s">
         <v>367</v>
@@ -17116,14 +17558,14 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>367</v>
@@ -17228,22 +17670,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="339" t="s">
+      <c r="E3" s="348" t="s">
+        <v>522</v>
+      </c>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339" t="s">
+      <c r="H3" s="348"/>
+      <c r="I3" s="348"/>
+      <c r="J3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="348"/>
+      <c r="M3" s="348" t="s">
         <v>524</v>
       </c>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="339"/>
-      <c r="K3" s="339"/>
-      <c r="L3" s="339"/>
-      <c r="M3" s="339" t="s">
-        <v>525</v>
-      </c>
-      <c r="N3" s="339"/>
+      <c r="N3" s="348"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -17254,15 +17696,15 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="340" t="s">
-        <v>526</v>
+      <c r="E4" s="349" t="s">
+        <v>525</v>
       </c>
       <c r="F4" s="131"/>
       <c r="G4" s="132"/>
       <c r="H4" s="132"/>
       <c r="I4" s="132"/>
       <c r="J4" s="132" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K4" s="132"/>
       <c r="L4" s="132"/>
@@ -17282,22 +17724,22 @@
         <v>182</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="297" t="s">
+      <c r="E5" s="350"/>
+      <c r="F5" s="304" t="s">
+        <v>625</v>
+      </c>
+      <c r="G5" s="305"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="378" t="s">
         <v>626</v>
       </c>
-      <c r="G5" s="298"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="369" t="s">
+      <c r="J5" s="379"/>
+      <c r="K5" s="379"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="378" t="s">
         <v>627</v>
       </c>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="349"/>
-      <c r="M5" s="369" t="s">
-        <v>628</v>
-      </c>
-      <c r="N5" s="349"/>
+      <c r="N5" s="358"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -17308,16 +17750,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="341"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="350"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="351"/>
-      <c r="M6" s="350"/>
-      <c r="N6" s="351"/>
+      <c r="E6" s="350"/>
+      <c r="F6" s="307"/>
+      <c r="G6" s="308"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="380"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="360"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>183</v>
@@ -17334,16 +17776,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="341"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="350"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="351"/>
-      <c r="M7" s="350"/>
-      <c r="N7" s="351"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="359"/>
+      <c r="J7" s="380"/>
+      <c r="K7" s="380"/>
+      <c r="L7" s="360"/>
+      <c r="M7" s="359"/>
+      <c r="N7" s="360"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -17362,16 +17804,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="371"/>
-      <c r="K8" s="371"/>
-      <c r="L8" s="351"/>
-      <c r="M8" s="350"/>
-      <c r="N8" s="351"/>
+      <c r="E8" s="350"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="308"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="359"/>
+      <c r="J8" s="380"/>
+      <c r="K8" s="380"/>
+      <c r="L8" s="360"/>
+      <c r="M8" s="359"/>
+      <c r="N8" s="360"/>
       <c r="O8" s="5" t="s">
         <v>188</v>
       </c>
@@ -17392,16 +17834,16 @@
         <v>191</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="341"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="371"/>
-      <c r="K9" s="371"/>
-      <c r="L9" s="351"/>
-      <c r="M9" s="350"/>
-      <c r="N9" s="351"/>
+      <c r="E9" s="350"/>
+      <c r="F9" s="307"/>
+      <c r="G9" s="308"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="380"/>
+      <c r="K9" s="380"/>
+      <c r="L9" s="360"/>
+      <c r="M9" s="359"/>
+      <c r="N9" s="360"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -17415,19 +17857,19 @@
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="341"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="350"/>
-      <c r="J10" s="371"/>
-      <c r="K10" s="371"/>
-      <c r="L10" s="351"/>
-      <c r="M10" s="350"/>
-      <c r="N10" s="351"/>
+      <c r="E10" s="350"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="359"/>
+      <c r="J10" s="380"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="360"/>
+      <c r="M10" s="359"/>
+      <c r="N10" s="360"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -17440,16 +17882,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="350"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="351"/>
-      <c r="M11" s="350"/>
-      <c r="N11" s="351"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="359"/>
+      <c r="J11" s="380"/>
+      <c r="K11" s="380"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="359"/>
+      <c r="N11" s="360"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -17460,16 +17902,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="341"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="350"/>
-      <c r="J12" s="371"/>
-      <c r="K12" s="371"/>
-      <c r="L12" s="351"/>
-      <c r="M12" s="350"/>
-      <c r="N12" s="351"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="308"/>
+      <c r="H12" s="309"/>
+      <c r="I12" s="359"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="380"/>
+      <c r="L12" s="360"/>
+      <c r="M12" s="359"/>
+      <c r="N12" s="360"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -17482,16 +17924,16 @@
         <v>193</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="341"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="350"/>
-      <c r="J13" s="371"/>
-      <c r="K13" s="371"/>
-      <c r="L13" s="351"/>
-      <c r="M13" s="350"/>
-      <c r="N13" s="351"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="308"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="359"/>
+      <c r="J13" s="380"/>
+      <c r="K13" s="380"/>
+      <c r="L13" s="360"/>
+      <c r="M13" s="359"/>
+      <c r="N13" s="360"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -17502,16 +17944,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="341"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="301"/>
-      <c r="H14" s="302"/>
-      <c r="I14" s="350"/>
-      <c r="J14" s="371"/>
-      <c r="K14" s="371"/>
-      <c r="L14" s="351"/>
-      <c r="M14" s="350"/>
-      <c r="N14" s="351"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="307"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="359"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="380"/>
+      <c r="L14" s="360"/>
+      <c r="M14" s="359"/>
+      <c r="N14" s="360"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -17522,16 +17964,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="341"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="302"/>
-      <c r="I15" s="350"/>
-      <c r="J15" s="371"/>
-      <c r="K15" s="371"/>
-      <c r="L15" s="351"/>
-      <c r="M15" s="350"/>
-      <c r="N15" s="351"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="307"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="359"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="380"/>
+      <c r="L15" s="360"/>
+      <c r="M15" s="359"/>
+      <c r="N15" s="360"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -17542,16 +17984,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="341"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="301"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="350"/>
-      <c r="J16" s="371"/>
-      <c r="K16" s="371"/>
-      <c r="L16" s="351"/>
-      <c r="M16" s="350"/>
-      <c r="N16" s="351"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="359"/>
+      <c r="J16" s="380"/>
+      <c r="K16" s="380"/>
+      <c r="L16" s="360"/>
+      <c r="M16" s="359"/>
+      <c r="N16" s="360"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -17564,16 +18006,16 @@
         <v>194</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="341"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="301"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="350"/>
-      <c r="J17" s="371"/>
-      <c r="K17" s="371"/>
-      <c r="L17" s="351"/>
-      <c r="M17" s="350"/>
-      <c r="N17" s="351"/>
+      <c r="E17" s="350"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="308"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="359"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="380"/>
+      <c r="L17" s="360"/>
+      <c r="M17" s="359"/>
+      <c r="N17" s="360"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -17584,16 +18026,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="352"/>
-      <c r="J18" s="372"/>
-      <c r="K18" s="372"/>
-      <c r="L18" s="353"/>
-      <c r="M18" s="352"/>
-      <c r="N18" s="353"/>
+      <c r="E18" s="351"/>
+      <c r="F18" s="310"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="312"/>
+      <c r="I18" s="361"/>
+      <c r="J18" s="381"/>
+      <c r="K18" s="381"/>
+      <c r="L18" s="362"/>
+      <c r="M18" s="361"/>
+      <c r="N18" s="362"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -17622,26 +18064,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="292" t="s">
+      <c r="C20" s="299" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="293"/>
+      <c r="D20" s="300"/>
       <c r="E20" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="292" t="s">
+      <c r="F20" s="299" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="293"/>
-      <c r="M20" s="292" t="s">
-        <v>533</v>
-      </c>
-      <c r="N20" s="293"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="300"/>
+      <c r="M20" s="299" t="s">
+        <v>532</v>
+      </c>
+      <c r="N20" s="300"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -17669,39 +18111,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="361" t="s">
-        <v>579</v>
-      </c>
-      <c r="C24" s="361"/>
-      <c r="D24" s="362"/>
-      <c r="E24" s="362"/>
-      <c r="F24" s="362"/>
-      <c r="G24" s="362"/>
-      <c r="H24" s="362"/>
-      <c r="I24" s="362"/>
-      <c r="J24" s="362"/>
-      <c r="K24" s="362"/>
-      <c r="M24" s="390" t="s">
+      <c r="B24" s="370" t="s">
+        <v>578</v>
+      </c>
+      <c r="C24" s="370"/>
+      <c r="D24" s="371"/>
+      <c r="E24" s="371"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="371"/>
+      <c r="H24" s="371"/>
+      <c r="I24" s="371"/>
+      <c r="J24" s="371"/>
+      <c r="K24" s="371"/>
+      <c r="M24" s="399" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="390"/>
-      <c r="O24" s="390"/>
+      <c r="N24" s="399"/>
+      <c r="O24" s="399"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="391" t="s">
-        <v>954</v>
-      </c>
-      <c r="C25" s="322"/>
-      <c r="D25" s="281" t="s">
+      <c r="B25" s="400" t="s">
+        <v>953</v>
+      </c>
+      <c r="C25" s="331"/>
+      <c r="D25" s="288" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="281"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="281"/>
-      <c r="H25" s="281"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="281"/>
-      <c r="K25" s="282"/>
+      <c r="E25" s="288"/>
+      <c r="F25" s="288"/>
+      <c r="G25" s="288"/>
+      <c r="H25" s="288"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="288"/>
+      <c r="K25" s="289"/>
       <c r="M25" s="38" t="s">
         <v>183</v>
       </c>
@@ -17713,22 +18155,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="323"/>
-      <c r="C26" s="324"/>
-      <c r="D26" s="321" t="s">
-        <v>947</v>
-      </c>
-      <c r="E26" s="322"/>
-      <c r="F26" s="385" t="s">
-        <v>947</v>
-      </c>
-      <c r="G26" s="281"/>
-      <c r="H26" s="282"/>
-      <c r="I26" s="280" t="s">
-        <v>951</v>
-      </c>
-      <c r="J26" s="281"/>
-      <c r="K26" s="282"/>
+      <c r="B26" s="332"/>
+      <c r="C26" s="333"/>
+      <c r="D26" s="330" t="s">
+        <v>946</v>
+      </c>
+      <c r="E26" s="331"/>
+      <c r="F26" s="394" t="s">
+        <v>946</v>
+      </c>
+      <c r="G26" s="288"/>
+      <c r="H26" s="289"/>
+      <c r="I26" s="287" t="s">
+        <v>950</v>
+      </c>
+      <c r="J26" s="288"/>
+      <c r="K26" s="289"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -17743,22 +18185,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="323"/>
-      <c r="C27" s="324"/>
-      <c r="D27" s="317" t="s">
-        <v>952</v>
-      </c>
-      <c r="E27" s="324"/>
-      <c r="F27" s="323" t="s">
-        <v>948</v>
-      </c>
-      <c r="G27" s="317"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="389" t="s">
-        <v>952</v>
-      </c>
-      <c r="J27" s="317"/>
-      <c r="K27" s="271"/>
+      <c r="B27" s="332"/>
+      <c r="C27" s="333"/>
+      <c r="D27" s="326" t="s">
+        <v>951</v>
+      </c>
+      <c r="E27" s="333"/>
+      <c r="F27" s="332" t="s">
+        <v>947</v>
+      </c>
+      <c r="G27" s="326"/>
+      <c r="H27" s="286"/>
+      <c r="I27" s="398" t="s">
+        <v>951</v>
+      </c>
+      <c r="J27" s="326"/>
+      <c r="K27" s="286"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -17766,29 +18208,29 @@
         <v>30</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O27" s="70" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="323"/>
-      <c r="C28" s="324"/>
-      <c r="D28" s="317" t="s">
-        <v>949</v>
-      </c>
-      <c r="E28" s="324"/>
-      <c r="F28" s="323" t="s">
-        <v>949</v>
-      </c>
-      <c r="G28" s="317"/>
-      <c r="H28" s="271"/>
-      <c r="I28" s="389" t="s">
-        <v>949</v>
-      </c>
-      <c r="J28" s="317"/>
-      <c r="K28" s="271"/>
+      <c r="B28" s="332"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="326" t="s">
+        <v>948</v>
+      </c>
+      <c r="E28" s="333"/>
+      <c r="F28" s="332" t="s">
+        <v>948</v>
+      </c>
+      <c r="G28" s="326"/>
+      <c r="H28" s="286"/>
+      <c r="I28" s="398" t="s">
+        <v>948</v>
+      </c>
+      <c r="J28" s="326"/>
+      <c r="K28" s="286"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -17797,22 +18239,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="325"/>
-      <c r="C29" s="326"/>
-      <c r="D29" s="317" t="s">
-        <v>950</v>
-      </c>
-      <c r="E29" s="324"/>
-      <c r="F29" s="386" t="s">
-        <v>950</v>
-      </c>
-      <c r="G29" s="387"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="401" t="s">
-        <v>950</v>
-      </c>
-      <c r="J29" s="387"/>
-      <c r="K29" s="388"/>
+      <c r="B29" s="334"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="326" t="s">
+        <v>949</v>
+      </c>
+      <c r="E29" s="333"/>
+      <c r="F29" s="395" t="s">
+        <v>949</v>
+      </c>
+      <c r="G29" s="396"/>
+      <c r="H29" s="397"/>
+      <c r="I29" s="410" t="s">
+        <v>949</v>
+      </c>
+      <c r="J29" s="396"/>
+      <c r="K29" s="397"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -17821,151 +18263,151 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="283" t="s">
-        <v>953</v>
-      </c>
-      <c r="C30" s="285"/>
-      <c r="D30" s="373" t="s">
+      <c r="B30" s="290" t="s">
+        <v>952</v>
+      </c>
+      <c r="C30" s="292"/>
+      <c r="D30" s="382" t="s">
+        <v>579</v>
+      </c>
+      <c r="E30" s="383"/>
+      <c r="F30" s="387" t="s">
         <v>580</v>
       </c>
-      <c r="E30" s="374"/>
-      <c r="F30" s="378" t="s">
+      <c r="G30" s="388"/>
+      <c r="H30" s="383"/>
+      <c r="I30" s="387" t="s">
         <v>581</v>
       </c>
-      <c r="G30" s="379"/>
-      <c r="H30" s="374"/>
-      <c r="I30" s="378" t="s">
-        <v>582</v>
-      </c>
-      <c r="J30" s="379"/>
-      <c r="K30" s="382"/>
+      <c r="J30" s="388"/>
+      <c r="K30" s="391"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="287"/>
-      <c r="C31" s="288"/>
-      <c r="D31" s="375"/>
-      <c r="E31" s="364"/>
-      <c r="F31" s="363"/>
-      <c r="G31" s="365"/>
-      <c r="H31" s="364"/>
-      <c r="I31" s="363"/>
-      <c r="J31" s="365"/>
-      <c r="K31" s="383"/>
+      <c r="B31" s="294"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="384"/>
+      <c r="E31" s="373"/>
+      <c r="F31" s="372"/>
+      <c r="G31" s="374"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="372"/>
+      <c r="J31" s="374"/>
+      <c r="K31" s="392"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="287"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="375"/>
-      <c r="E32" s="364"/>
-      <c r="F32" s="363"/>
-      <c r="G32" s="365"/>
-      <c r="H32" s="364"/>
-      <c r="I32" s="363"/>
-      <c r="J32" s="365"/>
-      <c r="K32" s="383"/>
+      <c r="B32" s="294"/>
+      <c r="C32" s="295"/>
+      <c r="D32" s="384"/>
+      <c r="E32" s="373"/>
+      <c r="F32" s="372"/>
+      <c r="G32" s="374"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="372"/>
+      <c r="J32" s="374"/>
+      <c r="K32" s="392"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="287"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="376"/>
-      <c r="E33" s="377"/>
-      <c r="F33" s="380"/>
-      <c r="G33" s="381"/>
-      <c r="H33" s="377"/>
-      <c r="I33" s="380"/>
-      <c r="J33" s="381"/>
-      <c r="K33" s="384"/>
+      <c r="B33" s="294"/>
+      <c r="C33" s="295"/>
+      <c r="D33" s="385"/>
+      <c r="E33" s="386"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
+      <c r="H33" s="386"/>
+      <c r="I33" s="389"/>
+      <c r="J33" s="390"/>
+      <c r="K33" s="393"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="287"/>
-      <c r="C34" s="279"/>
-      <c r="D34" s="392" t="s">
-        <v>937</v>
-      </c>
-      <c r="E34" s="393"/>
-      <c r="F34" s="392" t="s">
-        <v>602</v>
-      </c>
-      <c r="G34" s="398"/>
-      <c r="H34" s="393"/>
-      <c r="I34" s="392" t="s">
-        <v>955</v>
-      </c>
-      <c r="J34" s="398"/>
-      <c r="K34" s="393"/>
+      <c r="B34" s="294"/>
+      <c r="C34" s="282"/>
+      <c r="D34" s="401" t="s">
+        <v>936</v>
+      </c>
+      <c r="E34" s="402"/>
+      <c r="F34" s="401" t="s">
+        <v>601</v>
+      </c>
+      <c r="G34" s="407"/>
+      <c r="H34" s="402"/>
+      <c r="I34" s="401" t="s">
+        <v>954</v>
+      </c>
+      <c r="J34" s="407"/>
+      <c r="K34" s="402"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="287"/>
-      <c r="C35" s="279"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="395"/>
-      <c r="F35" s="394"/>
-      <c r="G35" s="399"/>
-      <c r="H35" s="395"/>
-      <c r="I35" s="394"/>
-      <c r="J35" s="399"/>
-      <c r="K35" s="395"/>
+      <c r="B35" s="294"/>
+      <c r="C35" s="282"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="404"/>
+      <c r="F35" s="403"/>
+      <c r="G35" s="408"/>
+      <c r="H35" s="404"/>
+      <c r="I35" s="403"/>
+      <c r="J35" s="408"/>
+      <c r="K35" s="404"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="287"/>
-      <c r="C36" s="279"/>
-      <c r="D36" s="394"/>
-      <c r="E36" s="395"/>
-      <c r="F36" s="394"/>
-      <c r="G36" s="399"/>
-      <c r="H36" s="395"/>
-      <c r="I36" s="394"/>
-      <c r="J36" s="399"/>
-      <c r="K36" s="395"/>
+      <c r="B36" s="294"/>
+      <c r="C36" s="282"/>
+      <c r="D36" s="403"/>
+      <c r="E36" s="404"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="408"/>
+      <c r="H36" s="404"/>
+      <c r="I36" s="403"/>
+      <c r="J36" s="408"/>
+      <c r="K36" s="404"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="287"/>
-      <c r="C37" s="279"/>
-      <c r="D37" s="394"/>
-      <c r="E37" s="395"/>
-      <c r="F37" s="394"/>
-      <c r="G37" s="399"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="394"/>
-      <c r="J37" s="399"/>
-      <c r="K37" s="395"/>
+      <c r="B37" s="294"/>
+      <c r="C37" s="282"/>
+      <c r="D37" s="403"/>
+      <c r="E37" s="404"/>
+      <c r="F37" s="403"/>
+      <c r="G37" s="408"/>
+      <c r="H37" s="404"/>
+      <c r="I37" s="403"/>
+      <c r="J37" s="408"/>
+      <c r="K37" s="404"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="287"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="396"/>
-      <c r="E38" s="397"/>
-      <c r="F38" s="396"/>
-      <c r="G38" s="400"/>
-      <c r="H38" s="397"/>
-      <c r="I38" s="396"/>
-      <c r="J38" s="400"/>
-      <c r="K38" s="397"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="405"/>
+      <c r="E38" s="406"/>
+      <c r="F38" s="405"/>
+      <c r="G38" s="409"/>
+      <c r="H38" s="406"/>
+      <c r="I38" s="405"/>
+      <c r="J38" s="409"/>
+      <c r="K38" s="406"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="289"/>
-      <c r="C39" s="291"/>
-      <c r="D39" s="366" t="s">
+      <c r="B39" s="296"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="375" t="s">
+        <v>582</v>
+      </c>
+      <c r="E39" s="376"/>
+      <c r="F39" s="376"/>
+      <c r="G39" s="376"/>
+      <c r="H39" s="376"/>
+      <c r="I39" s="376"/>
+      <c r="J39" s="376"/>
+      <c r="K39" s="377"/>
+      <c r="L39" s="40" t="s">
         <v>583</v>
-      </c>
-      <c r="E39" s="367"/>
-      <c r="F39" s="367"/>
-      <c r="G39" s="367"/>
-      <c r="H39" s="367"/>
-      <c r="I39" s="367"/>
-      <c r="J39" s="367"/>
-      <c r="K39" s="368"/>
-      <c r="L39" s="40" t="s">
-        <v>584</v>
       </c>
       <c r="M39" s="40"/>
       <c r="N39" s="40"/>
@@ -17981,22 +18423,22 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="292" t="s">
+      <c r="B41" s="299" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="293"/>
-      <c r="D41" s="292" t="s">
+      <c r="C41" s="300"/>
+      <c r="D41" s="299" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="293"/>
-      <c r="F41" s="292" t="s">
+      <c r="E41" s="300"/>
+      <c r="F41" s="299" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="294"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="293"/>
+      <c r="G41" s="301"/>
+      <c r="H41" s="301"/>
+      <c r="I41" s="301"/>
+      <c r="J41" s="301"/>
+      <c r="K41" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -18378,10 +18820,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
+        <v>666</v>
+      </c>
+      <c r="I9" t="s">
         <v>667</v>
-      </c>
-      <c r="I9" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -18392,10 +18834,10 @@
         <v>37</v>
       </c>
       <c r="M10" t="s">
+        <v>675</v>
+      </c>
+      <c r="N10" t="s">
         <v>676</v>
-      </c>
-      <c r="N10" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -18403,13 +18845,13 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M11" t="s">
+        <v>677</v>
+      </c>
+      <c r="N11" t="s">
         <v>678</v>
-      </c>
-      <c r="N11" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -18422,7 +18864,7 @@
         <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -18430,7 +18872,7 @@
         <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
@@ -18438,23 +18880,23 @@
     </row>
     <row r="16" spans="2:14">
       <c r="I16" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="K16" t="s">
         <v>672</v>
-      </c>
-      <c r="K16" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="17" spans="4:11">
       <c r="I17" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="K17" t="s">
         <v>674</v>
-      </c>
-      <c r="K17" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="20" spans="4:11">
       <c r="D20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -18511,13 +18953,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="272" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="266"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="267"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="274"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>151</v>
@@ -19043,7 +19485,7 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="268" t="s">
+      <c r="C36" s="283" t="s">
         <v>168</v>
       </c>
       <c r="D36">
@@ -19062,7 +19504,7 @@
         <v>183</v>
       </c>
       <c r="M36" s="169" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N36" s="170" t="s">
         <v>304</v>
@@ -19070,36 +19512,36 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C37" s="268"/>
+      <c r="C37" s="283"/>
       <c r="D37">
         <v>20</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F37" s="63"/>
       <c r="G37" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="H37" s="63" t="s">
         <v>685</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="I37" s="63" t="s">
         <v>686</v>
-      </c>
-      <c r="I37" s="63" t="s">
-        <v>687</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="63"/>
       <c r="L37" s="63" t="s">
+        <v>682</v>
+      </c>
+      <c r="M37" s="63" t="s">
         <v>683</v>
-      </c>
-      <c r="M37" s="63" t="s">
-        <v>684</v>
       </c>
       <c r="N37" s="64"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="268" t="s">
+      <c r="C38" s="283" t="s">
         <v>169</v>
       </c>
       <c r="D38">
@@ -19118,7 +19560,7 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="268"/>
+      <c r="C39" s="283"/>
       <c r="D39">
         <v>40</v>
       </c>
@@ -19135,7 +19577,7 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="268"/>
+      <c r="C40" s="283"/>
       <c r="D40">
         <v>50</v>
       </c>
@@ -19152,7 +19594,7 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="268"/>
+      <c r="C41" s="283"/>
       <c r="D41">
         <v>60</v>
       </c>
@@ -19171,7 +19613,7 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="268"/>
+      <c r="C42" s="283"/>
       <c r="D42">
         <v>70</v>
       </c>
@@ -19188,7 +19630,7 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="268"/>
+      <c r="C43" s="283"/>
       <c r="D43">
         <v>80</v>
       </c>
@@ -19205,7 +19647,7 @@
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C44" s="268"/>
+      <c r="C44" s="283"/>
       <c r="D44">
         <v>90</v>
       </c>
@@ -19223,27 +19665,27 @@
     </row>
     <row r="45" spans="3:15" ht="15.75" thickBot="1">
       <c r="C45" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D45">
         <v>100</v>
       </c>
       <c r="E45" s="165" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F45" s="166"/>
       <c r="G45" s="166"/>
       <c r="H45" s="166" t="s">
+        <v>687</v>
+      </c>
+      <c r="I45" s="166" t="s">
         <v>688</v>
       </c>
-      <c r="I45" s="166" t="s">
+      <c r="J45" s="166" t="s">
         <v>689</v>
       </c>
-      <c r="J45" s="166" t="s">
+      <c r="K45" s="166" t="s">
         <v>690</v>
-      </c>
-      <c r="K45" s="166" t="s">
-        <v>691</v>
       </c>
       <c r="L45" s="166"/>
       <c r="M45" s="166"/>
@@ -19296,7 +19738,7 @@
       </c>
     </row>
     <row r="49" spans="4:14">
-      <c r="D49" s="278">
+      <c r="D49" s="281">
         <v>1</v>
       </c>
       <c r="E49" s="175"/>
@@ -19311,7 +19753,7 @@
       <c r="N49" s="180"/>
     </row>
     <row r="50" spans="4:14">
-      <c r="D50" s="279"/>
+      <c r="D50" s="282"/>
       <c r="E50" s="176"/>
       <c r="F50" s="172"/>
       <c r="G50" s="173"/>
@@ -19324,7 +19766,7 @@
       <c r="N50" s="174"/>
     </row>
     <row r="51" spans="4:14">
-      <c r="D51" s="279"/>
+      <c r="D51" s="282"/>
       <c r="E51" s="176"/>
       <c r="F51" s="172"/>
       <c r="G51" s="173"/>
@@ -19337,9 +19779,9 @@
       <c r="N51" s="174"/>
     </row>
     <row r="52" spans="4:14">
-      <c r="D52" s="279"/>
+      <c r="D52" s="282"/>
       <c r="E52" s="176" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F52" s="172"/>
       <c r="G52" s="173"/>
@@ -19354,7 +19796,7 @@
       <c r="N52" s="174"/>
     </row>
     <row r="53" spans="4:14">
-      <c r="D53" s="279"/>
+      <c r="D53" s="282"/>
       <c r="E53" s="176"/>
       <c r="F53" s="172"/>
       <c r="G53" s="173"/>
@@ -19367,7 +19809,7 @@
       <c r="N53" s="174"/>
     </row>
     <row r="54" spans="4:14">
-      <c r="D54" s="279"/>
+      <c r="D54" s="282"/>
       <c r="E54" s="176"/>
       <c r="F54" s="172"/>
       <c r="G54" s="173"/>
@@ -19380,7 +19822,7 @@
       <c r="N54" s="174"/>
     </row>
     <row r="55" spans="4:14" ht="15.75" thickBot="1">
-      <c r="D55" s="279"/>
+      <c r="D55" s="282"/>
       <c r="E55" s="177"/>
       <c r="F55" s="181"/>
       <c r="G55" s="182"/>
@@ -19394,37 +19836,37 @@
     </row>
     <row r="61" spans="4:14">
       <c r="F61" t="s">
+        <v>692</v>
+      </c>
+      <c r="G61" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="G61" s="38" t="s">
-        <v>694</v>
-      </c>
       <c r="H61" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="4:14">
       <c r="F62" t="s">
+        <v>692</v>
+      </c>
+      <c r="G62" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="G62" s="38" t="s">
-        <v>694</v>
-      </c>
       <c r="H62" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="5:8">
       <c r="G65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="5:8">
       <c r="E66" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G66" t="s">
         <v>183</v>
@@ -19433,7 +19875,7 @@
     </row>
     <row r="67" spans="5:8">
       <c r="E67" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G67" t="s">
         <v>184</v>
@@ -19442,15 +19884,15 @@
     </row>
     <row r="68" spans="5:8">
       <c r="E68" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="3:15">
       <c r="E81" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="15.75" thickBot="1">
@@ -19490,24 +19932,24 @@
         <v>10</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E84" s="244"/>
       <c r="F84" s="179"/>
       <c r="G84" s="179"/>
       <c r="H84" s="179" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I84" s="179"/>
       <c r="J84" s="179"/>
       <c r="K84" s="179"/>
       <c r="L84" s="179"/>
       <c r="M84" s="179"/>
-      <c r="N84" s="269" t="s">
-        <v>957</v>
+      <c r="N84" s="284" t="s">
+        <v>956</v>
       </c>
       <c r="O84" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="3:15" ht="15.75" thickBot="1">
@@ -19524,9 +19966,9 @@
       <c r="K85" s="182"/>
       <c r="L85" s="182"/>
       <c r="M85" s="182"/>
-      <c r="N85" s="269"/>
+      <c r="N85" s="284"/>
       <c r="O85" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="86" spans="3:15">
@@ -19543,11 +19985,11 @@
       <c r="K86" s="236"/>
       <c r="L86" s="236"/>
       <c r="M86" s="236"/>
-      <c r="N86" s="269" t="s">
-        <v>960</v>
+      <c r="N86" s="284" t="s">
+        <v>959</v>
       </c>
       <c r="O86" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="87" spans="3:15">
@@ -19564,7 +20006,7 @@
       <c r="K87" s="237"/>
       <c r="L87" s="237"/>
       <c r="M87" s="237"/>
-      <c r="N87" s="269"/>
+      <c r="N87" s="284"/>
     </row>
     <row r="88" spans="3:15">
       <c r="C88">
@@ -19580,27 +20022,27 @@
       <c r="K88" s="237"/>
       <c r="L88" s="237"/>
       <c r="M88" s="237"/>
-      <c r="N88" s="269"/>
+      <c r="N88" s="284"/>
     </row>
     <row r="89" spans="3:15">
       <c r="C89">
         <v>60</v>
       </c>
       <c r="D89" s="247" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E89" s="237"/>
       <c r="F89" s="237"/>
       <c r="G89" s="237"/>
       <c r="H89" s="237" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I89" s="237"/>
       <c r="J89" s="237"/>
       <c r="K89" s="237"/>
       <c r="L89" s="237"/>
       <c r="M89" s="237"/>
-      <c r="N89" s="269"/>
+      <c r="N89" s="284"/>
     </row>
     <row r="90" spans="3:15">
       <c r="C90">
@@ -19616,7 +20058,7 @@
       <c r="K90" s="237"/>
       <c r="L90" s="237"/>
       <c r="M90" s="237"/>
-      <c r="N90" s="269"/>
+      <c r="N90" s="284"/>
     </row>
     <row r="91" spans="3:15">
       <c r="C91">
@@ -19632,7 +20074,7 @@
       <c r="K91" s="237"/>
       <c r="L91" s="237"/>
       <c r="M91" s="237"/>
-      <c r="N91" s="269"/>
+      <c r="N91" s="284"/>
     </row>
     <row r="92" spans="3:15" ht="15.75" thickBot="1">
       <c r="C92">
@@ -19648,7 +20090,7 @@
       <c r="K92" s="238"/>
       <c r="L92" s="238"/>
       <c r="M92" s="238"/>
-      <c r="N92" s="269"/>
+      <c r="N92" s="284"/>
     </row>
     <row r="93" spans="3:15" ht="15.75" thickBot="1">
       <c r="C93">
@@ -19665,39 +20107,39 @@
       <c r="L93" s="241"/>
       <c r="M93" s="241"/>
       <c r="N93" s="249" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O93" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="3:15">
       <c r="C94" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O94" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="95" spans="3:15">
       <c r="O95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="3:15" ht="15.75" thickBot="1">
       <c r="O96" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="97" spans="3:13">
       <c r="D97" s="66" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E97" s="244"/>
       <c r="F97" s="233"/>
       <c r="G97" s="233"/>
       <c r="H97" s="233" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I97" s="233"/>
       <c r="J97" s="233"/>
@@ -19750,7 +20192,7 @@
       </c>
     </row>
     <row r="101" spans="3:13">
-      <c r="C101" s="270">
+      <c r="C101" s="285">
         <v>1</v>
       </c>
       <c r="D101" s="232"/>
@@ -19765,7 +20207,7 @@
       <c r="M101" s="242"/>
     </row>
     <row r="102" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C102" s="271"/>
+      <c r="C102" s="286"/>
       <c r="D102" s="234"/>
       <c r="E102" s="235"/>
       <c r="F102" s="235"/>
@@ -19816,13 +20258,13 @@
     </row>
     <row r="108" spans="3:13">
       <c r="D108" s="247" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E108" s="237"/>
       <c r="F108" s="237"/>
       <c r="G108" s="237"/>
       <c r="H108" s="237" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I108" s="237"/>
       <c r="J108" s="237"/>
@@ -19868,88 +20310,88 @@
     </row>
     <row r="112" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="113" spans="4:13">
-      <c r="D113" s="272"/>
-      <c r="E113" s="273"/>
-      <c r="F113" s="273"/>
-      <c r="G113" s="273"/>
-      <c r="H113" s="273"/>
-      <c r="I113" s="273"/>
-      <c r="J113" s="273"/>
-      <c r="K113" s="273"/>
-      <c r="L113" s="273"/>
-      <c r="M113" s="273"/>
+      <c r="D113" s="275"/>
+      <c r="E113" s="276"/>
+      <c r="F113" s="276"/>
+      <c r="G113" s="276"/>
+      <c r="H113" s="276"/>
+      <c r="I113" s="276"/>
+      <c r="J113" s="276"/>
+      <c r="K113" s="276"/>
+      <c r="L113" s="276"/>
+      <c r="M113" s="276"/>
     </row>
     <row r="114" spans="4:13">
-      <c r="D114" s="274"/>
-      <c r="E114" s="275"/>
-      <c r="F114" s="275"/>
-      <c r="G114" s="275"/>
-      <c r="H114" s="275"/>
-      <c r="I114" s="275"/>
-      <c r="J114" s="275"/>
-      <c r="K114" s="275"/>
-      <c r="L114" s="275"/>
-      <c r="M114" s="275"/>
+      <c r="D114" s="277"/>
+      <c r="E114" s="278"/>
+      <c r="F114" s="278"/>
+      <c r="G114" s="278"/>
+      <c r="H114" s="278"/>
+      <c r="I114" s="278"/>
+      <c r="J114" s="278"/>
+      <c r="K114" s="278"/>
+      <c r="L114" s="278"/>
+      <c r="M114" s="278"/>
     </row>
     <row r="115" spans="4:13">
-      <c r="D115" s="274"/>
-      <c r="E115" s="275"/>
-      <c r="F115" s="275"/>
-      <c r="G115" s="275"/>
-      <c r="H115" s="275"/>
-      <c r="I115" s="275"/>
-      <c r="J115" s="275"/>
-      <c r="K115" s="275"/>
-      <c r="L115" s="275"/>
-      <c r="M115" s="275"/>
+      <c r="D115" s="277"/>
+      <c r="E115" s="278"/>
+      <c r="F115" s="278"/>
+      <c r="G115" s="278"/>
+      <c r="H115" s="278"/>
+      <c r="I115" s="278"/>
+      <c r="J115" s="278"/>
+      <c r="K115" s="278"/>
+      <c r="L115" s="278"/>
+      <c r="M115" s="278"/>
     </row>
     <row r="116" spans="4:13">
-      <c r="D116" s="274"/>
-      <c r="E116" s="275"/>
-      <c r="F116" s="275"/>
-      <c r="G116" s="275"/>
-      <c r="H116" s="275"/>
-      <c r="I116" s="275"/>
-      <c r="J116" s="275"/>
-      <c r="K116" s="275"/>
-      <c r="L116" s="275"/>
-      <c r="M116" s="275"/>
+      <c r="D116" s="277"/>
+      <c r="E116" s="278"/>
+      <c r="F116" s="278"/>
+      <c r="G116" s="278"/>
+      <c r="H116" s="278"/>
+      <c r="I116" s="278"/>
+      <c r="J116" s="278"/>
+      <c r="K116" s="278"/>
+      <c r="L116" s="278"/>
+      <c r="M116" s="278"/>
     </row>
     <row r="117" spans="4:13">
-      <c r="D117" s="274"/>
-      <c r="E117" s="275"/>
-      <c r="F117" s="275"/>
-      <c r="G117" s="275"/>
-      <c r="H117" s="275"/>
-      <c r="I117" s="275"/>
-      <c r="J117" s="275"/>
-      <c r="K117" s="275"/>
-      <c r="L117" s="275"/>
-      <c r="M117" s="275"/>
+      <c r="D117" s="277"/>
+      <c r="E117" s="278"/>
+      <c r="F117" s="278"/>
+      <c r="G117" s="278"/>
+      <c r="H117" s="278"/>
+      <c r="I117" s="278"/>
+      <c r="J117" s="278"/>
+      <c r="K117" s="278"/>
+      <c r="L117" s="278"/>
+      <c r="M117" s="278"/>
     </row>
     <row r="118" spans="4:13">
-      <c r="D118" s="274"/>
-      <c r="E118" s="275"/>
-      <c r="F118" s="275"/>
-      <c r="G118" s="275"/>
-      <c r="H118" s="275"/>
-      <c r="I118" s="275"/>
-      <c r="J118" s="275"/>
-      <c r="K118" s="275"/>
-      <c r="L118" s="275"/>
-      <c r="M118" s="275"/>
+      <c r="D118" s="277"/>
+      <c r="E118" s="278"/>
+      <c r="F118" s="278"/>
+      <c r="G118" s="278"/>
+      <c r="H118" s="278"/>
+      <c r="I118" s="278"/>
+      <c r="J118" s="278"/>
+      <c r="K118" s="278"/>
+      <c r="L118" s="278"/>
+      <c r="M118" s="278"/>
     </row>
     <row r="119" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D119" s="276"/>
-      <c r="E119" s="277"/>
-      <c r="F119" s="277"/>
-      <c r="G119" s="277"/>
-      <c r="H119" s="277"/>
-      <c r="I119" s="277"/>
-      <c r="J119" s="277"/>
-      <c r="K119" s="277"/>
-      <c r="L119" s="277"/>
-      <c r="M119" s="277"/>
+      <c r="D119" s="279"/>
+      <c r="E119" s="280"/>
+      <c r="F119" s="280"/>
+      <c r="G119" s="280"/>
+      <c r="H119" s="280"/>
+      <c r="I119" s="280"/>
+      <c r="J119" s="280"/>
+      <c r="K119" s="280"/>
+      <c r="L119" s="280"/>
+      <c r="M119" s="280"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -20018,14 +20460,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="280" t="s">
+      <c r="K4" s="287" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="282"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="288"/>
+      <c r="N4" s="288"/>
+      <c r="O4" s="288"/>
+      <c r="P4" s="289"/>
       <c r="S4" s="40" t="s">
         <v>180</v>
       </c>
@@ -20139,10 +20581,10 @@
       <c r="L8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M8" s="295" t="s">
+      <c r="M8" s="302" t="s">
         <v>213</v>
       </c>
-      <c r="N8" s="296"/>
+      <c r="N8" s="303"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
       <c r="Q8" t="s">
@@ -20182,8 +20624,8 @@
       <c r="L9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="296"/>
-      <c r="N9" s="296"/>
+      <c r="M9" s="303"/>
+      <c r="N9" s="303"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="Q9">
@@ -20209,8 +20651,8 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="296"/>
-      <c r="N10" s="296"/>
+      <c r="M10" s="303"/>
+      <c r="N10" s="303"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" t="s">
@@ -20221,13 +20663,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="283" t="s">
+      <c r="A11" s="290" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="284"/>
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="286"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="292"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="293"/>
       <c r="F11" t="s">
         <v>210</v>
       </c>
@@ -20236,8 +20678,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="296"/>
-      <c r="N11" s="296"/>
+      <c r="M11" s="303"/>
+      <c r="N11" s="303"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
       <c r="R11" s="38"/>
@@ -20245,21 +20687,21 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="287"/>
-      <c r="B12" s="288"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="279"/>
+      <c r="A12" s="294"/>
+      <c r="B12" s="295"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="282"/>
       <c r="F12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="296"/>
+      <c r="M12" s="303"/>
+      <c r="N12" s="303"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
       <c r="R12" s="38"/>
@@ -20267,11 +20709,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="287"/>
-      <c r="B13" s="288"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="279"/>
+      <c r="A13" s="294"/>
+      <c r="B13" s="295"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="282"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>193</v>
@@ -20279,24 +20721,24 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="296"/>
-      <c r="N13" s="296"/>
+      <c r="M13" s="303"/>
+      <c r="N13" s="303"/>
       <c r="O13" s="28"/>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="289"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="291"/>
+      <c r="A14" s="296"/>
+      <c r="B14" s="297"/>
+      <c r="C14" s="297"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
       <c r="M14" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -20304,10 +20746,10 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="C15" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="8"/>
@@ -20326,7 +20768,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -20399,20 +20841,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="292" t="s">
+      <c r="I20" s="299" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="293"/>
-      <c r="K20" s="292" t="s">
+      <c r="J20" s="300"/>
+      <c r="K20" s="299" t="s">
         <v>196</v>
       </c>
-      <c r="L20" s="293"/>
-      <c r="M20" s="292" t="s">
+      <c r="L20" s="300"/>
+      <c r="M20" s="299" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="294"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="293"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="300"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1">
       <c r="A21" s="24"/>
@@ -20470,39 +20912,39 @@
     </row>
     <row r="60" spans="5:12">
       <c r="F60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="5:12">
       <c r="E61" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="J61" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K61" t="s">
         <v>183</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62" spans="5:12">
       <c r="E62" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
       <c r="J62" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K62" t="s">
         <v>184</v>
@@ -20511,12 +20953,12 @@
     </row>
     <row r="63" spans="5:12">
       <c r="E63" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="J63" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L63" t="s">
         <v>304</v>
@@ -20524,127 +20966,127 @@
     </row>
     <row r="64" spans="5:12">
       <c r="E64" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
     </row>
     <row r="67" spans="3:14">
       <c r="J67" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="3:14">
       <c r="K68" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="69" spans="3:14">
       <c r="L69" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M69" t="s">
         <v>183</v>
       </c>
       <c r="N69" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="70" spans="3:14">
       <c r="C70" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L70" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M70" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="N70" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="71" spans="3:14">
       <c r="D71" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K71" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="72" spans="3:14">
       <c r="D72" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K72" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="3:14">
       <c r="D73" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L73" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M73" t="s">
         <v>184</v>
       </c>
       <c r="N73" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="74" spans="3:14">
       <c r="E74" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M74" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75" spans="3:14">
       <c r="K75" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="76" spans="3:14">
       <c r="K76" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="77" spans="3:14">
       <c r="L77" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N77" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="78" spans="3:14">
       <c r="L78" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M78" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N78" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79" spans="3:14">
       <c r="K79" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="80" spans="3:14">
       <c r="J80" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -20785,12 +21227,12 @@
     </row>
     <row r="13" spans="3:15">
       <c r="I13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="N14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15" spans="3:15">
@@ -20971,10 +21413,10 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -20987,19 +21429,19 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
+        <v>989</v>
+      </c>
+      <c r="E31" t="s">
         <v>990</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>991</v>
       </c>
-      <c r="G31" t="s">
+      <c r="L31" t="s">
         <v>992</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>993</v>
-      </c>
-      <c r="O31" t="s">
-        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -21013,7 +21455,7 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="E9" sqref="E9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21037,7 +21479,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="G1" s="187" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1" s="193" t="s">
         <v>150</v>
@@ -21061,11 +21503,11 @@
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1">
       <c r="C2" s="187" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D2" s="187"/>
       <c r="G2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="24"/>
@@ -21083,20 +21525,20 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="147" t="s">
         <v>182</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="306"/>
-      <c r="L3" s="306"/>
-      <c r="M3" s="306"/>
-      <c r="N3" s="306"/>
-      <c r="O3" s="306"/>
-      <c r="P3" s="306"/>
-      <c r="Q3" s="307"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="314"/>
       <c r="T3" s="40" t="s">
         <v>180</v>
       </c>
@@ -21129,7 +21571,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="H5" s="198" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I5" s="149" t="s">
         <v>265</v>
@@ -21166,7 +21608,7 @@
       <c r="K6" s="134"/>
       <c r="L6" s="24"/>
       <c r="M6" s="81" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -21193,14 +21635,14 @@
         <v>183</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H7" s="198" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I7" s="147"/>
       <c r="J7" s="188"/>
@@ -21209,7 +21651,7 @@
         <v>206</v>
       </c>
       <c r="M7" s="258" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N7" s="259"/>
       <c r="O7" s="189"/>
@@ -21226,7 +21668,7 @@
         <v>226</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U7" s="70" t="s">
         <v>190</v>
@@ -21241,13 +21683,13 @@
         <v>184</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="198"/>
@@ -21258,7 +21700,7 @@
         <v>207</v>
       </c>
       <c r="M8" s="260" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N8" s="261"/>
       <c r="O8" s="189"/>
@@ -21277,16 +21719,16 @@
         <v>212</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H9" s="198">
         <v>80</v>
       </c>
       <c r="I9" s="196" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="134"/>
@@ -21297,7 +21739,7 @@
         <v>357</v>
       </c>
       <c r="P9" s="191" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="82"/>
       <c r="R9" s="6"/>
@@ -21310,7 +21752,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="195" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="6"/>
       <c r="H10" s="198"/>
@@ -21338,11 +21780,11 @@
         <v>358</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G11" s="76"/>
       <c r="H11" s="198"/>
@@ -21364,15 +21806,15 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="297" t="s">
-        <v>696</v>
-      </c>
-      <c r="B12" s="298"/>
-      <c r="C12" s="298"/>
-      <c r="D12" s="298"/>
-      <c r="E12" s="299"/>
+      <c r="A12" s="304" t="s">
+        <v>695</v>
+      </c>
+      <c r="B12" s="305"/>
+      <c r="C12" s="305"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="306"/>
       <c r="F12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H12" s="198"/>
       <c r="I12" s="134" t="s">
@@ -21393,11 +21835,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="300"/>
-      <c r="B13" s="301"/>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="302"/>
+      <c r="A13" s="307"/>
+      <c r="B13" s="308"/>
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="309"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -21418,13 +21860,13 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="300"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="301"/>
-      <c r="D14" s="301"/>
-      <c r="E14" s="302"/>
+      <c r="A14" s="307"/>
+      <c r="B14" s="308"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="309"/>
       <c r="F14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H14" s="198"/>
       <c r="I14" s="8"/>
@@ -21445,11 +21887,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="303"/>
-      <c r="B15" s="304"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="305"/>
+      <c r="A15" s="310"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="312"/>
       <c r="F15" s="24"/>
       <c r="H15" s="198"/>
       <c r="I15" s="4" t="s">
@@ -21458,7 +21900,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
       <c r="L15" s="24" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -21473,14 +21915,14 @@
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="8"/>
@@ -21498,7 +21940,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="129" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B17" s="194"/>
       <c r="C17" s="194"/>
@@ -21522,7 +21964,7 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" thickBot="1">
       <c r="A18" s="194" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
@@ -21550,7 +21992,7 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" thickBot="1">
       <c r="A19" s="129" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="129"/>
       <c r="C19" s="129"/>
@@ -21564,7 +22006,7 @@
     </row>
     <row r="20" spans="1:22" ht="17.25" customHeight="1">
       <c r="A20" s="129" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B20" s="129"/>
       <c r="C20" s="129"/>
@@ -21573,7 +22015,7 @@
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
       <c r="L20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>360</v>
@@ -21583,7 +22025,7 @@
     </row>
     <row r="21" spans="1:22" ht="17.25" customHeight="1" thickBot="1">
       <c r="A21" s="129" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B21" s="129"/>
       <c r="C21" s="129"/>
@@ -21592,11 +22034,11 @@
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
       <c r="L21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T21" s="9"/>
     </row>
@@ -21608,19 +22050,19 @@
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="D23" s="195" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E23" s="16"/>
       <c r="L23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="23.25">
       <c r="D24" t="s">
+        <v>735</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>736</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>737</v>
       </c>
       <c r="F24" s="72"/>
       <c r="H24" t="s">
@@ -21629,10 +22071,10 @@
     </row>
     <row r="25" spans="1:22" ht="23.25">
       <c r="D25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>738</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>739</v>
       </c>
       <c r="F25" s="72"/>
       <c r="H25">
@@ -21641,74 +22083,74 @@
     </row>
     <row r="26" spans="1:22">
       <c r="D26" t="s">
+        <v>739</v>
+      </c>
+      <c r="E26" t="s">
         <v>740</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>741</v>
-      </c>
-      <c r="H26" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="D27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E27" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="H27" t="s">
         <v>743</v>
-      </c>
-      <c r="H27" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="D28" t="s">
+        <v>745</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="J28" t="s">
         <v>747</v>
-      </c>
-      <c r="J28" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="D29" t="s">
+        <v>748</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>750</v>
-      </c>
       <c r="J29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="D30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="J30" t="s">
         <v>753</v>
-      </c>
-      <c r="J30" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="D31" t="s">
+        <v>754</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>755</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="35" spans="2:16" ht="15.75" thickBot="1">
       <c r="F35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
@@ -21721,7 +22163,7 @@
     </row>
     <row r="36" spans="2:16" ht="15.75" thickBot="1">
       <c r="B36" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -21752,13 +22194,13 @@
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>334</v>
@@ -21772,14 +22214,14 @@
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
       <c r="E39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
@@ -21797,7 +22239,7 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -21805,7 +22247,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>367</v>
@@ -21819,7 +22261,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -21851,10 +22293,10 @@
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
@@ -21872,12 +22314,12 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -21939,10 +22381,10 @@
     </row>
     <row r="53" spans="2:16" ht="15.75" thickBot="1">
       <c r="F53" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1">
@@ -21957,18 +22399,18 @@
     </row>
     <row r="55" spans="2:16" ht="15.75" thickBot="1">
       <c r="B55" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F55" t="s">
         <v>724</v>
-      </c>
-      <c r="F55" t="s">
-        <v>725</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -21979,12 +22421,12 @@
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="1"/>
@@ -22000,14 +22442,14 @@
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="F57" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="6"/>
@@ -22018,7 +22460,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="9"/>
       <c r="E58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -22028,14 +22470,14 @@
         <v>123</v>
       </c>
       <c r="N58" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="2:16">
       <c r="F59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -22052,7 +22494,7 @@
     </row>
     <row r="60" spans="2:16">
       <c r="E60" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -22062,7 +22504,7 @@
         <v>567</v>
       </c>
       <c r="N60" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
@@ -22079,14 +22521,14 @@
     </row>
     <row r="62" spans="2:16">
       <c r="B62" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E62" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -22099,12 +22541,12 @@
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="F63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -22153,14 +22595,14 @@
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E67" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="5"/>
@@ -22173,12 +22615,12 @@
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="F68" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
@@ -22209,7 +22651,7 @@
     </row>
     <row r="102" spans="1:19" ht="15.75" thickBot="1">
       <c r="A102" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.75" thickBot="1">
@@ -22228,21 +22670,21 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" t="s">
+        <v>998</v>
+      </c>
+      <c r="C105" t="s">
         <v>999</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1000</v>
       </c>
       <c r="H105" s="4">
         <v>80</v>
       </c>
       <c r="I105" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J105" s="39"/>
       <c r="K105" s="5"/>
       <c r="L105" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="2"/>
@@ -22252,10 +22694,10 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C106" t="s">
         <v>1001</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1002</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="35"/>
@@ -22270,10 +22712,10 @@
     </row>
     <row r="107" spans="1:19" ht="15.75" thickBot="1">
       <c r="A107" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="256"/>
@@ -22446,7 +22888,7 @@
     <row r="136" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="137" spans="1:19" ht="15.75" thickBot="1">
       <c r="A137" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -22457,7 +22899,7 @@
       <c r="H137" s="3"/>
       <c r="L137" s="1"/>
       <c r="M137" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -22550,10 +22992,10 @@
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O142" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P142" s="6"/>
       <c r="Q142" s="5"/>
@@ -22574,7 +23016,7 @@
         <v>234</v>
       </c>
       <c r="N143" s="38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O143" s="38">
         <v>3</v>
@@ -22596,7 +23038,7 @@
       <c r="L144" s="4"/>
       <c r="M144" s="8"/>
       <c r="N144" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O144" s="38" t="b">
         <v>0</v>
@@ -22628,7 +23070,7 @@
     </row>
     <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -22690,10 +23132,10 @@
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -22701,7 +23143,7 @@
       <c r="H150" s="6"/>
       <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
@@ -23550,7 +23992,7 @@
     <row r="63" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="64" spans="3:16">
       <c r="L64" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -23566,10 +24008,10 @@
     </row>
     <row r="66" spans="4:16" ht="15.75" thickBot="1">
       <c r="K66" t="s">
+        <v>759</v>
+      </c>
+      <c r="L66" s="4" t="s">
         <v>760</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -23595,10 +24037,10 @@
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="K68" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -23611,7 +24053,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="I69" s="76" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="5"/>
@@ -23623,14 +24065,14 @@
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="10"/>
@@ -23644,7 +24086,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
       <c r="I71" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="4:16">
@@ -23653,13 +24095,13 @@
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I72" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -23694,10 +24136,10 @@
       <c r="F75" s="10"/>
       <c r="G75" s="9"/>
       <c r="K75" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -23713,10 +24155,10 @@
     </row>
     <row r="77" spans="4:16">
       <c r="K77" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -23747,16 +24189,16 @@
     <row r="83" spans="4:16" ht="15.75" thickBot="1"/>
     <row r="84" spans="4:16">
       <c r="L84" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M84" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N84" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P84" s="12">
         <v>12213213</v>
@@ -23765,24 +24207,24 @@
     <row r="85" spans="4:16">
       <c r="L85" s="4"/>
       <c r="M85" s="70" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N85" s="12">
         <v>123123213</v>
       </c>
       <c r="O85" s="38" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P85" s="12" t="s">
         <v>1021</v>
-      </c>
-      <c r="P85" s="12" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="86" spans="4:16" ht="15.75" thickBot="1">
       <c r="K86" t="s">
+        <v>759</v>
+      </c>
+      <c r="L86" s="198" t="s">
         <v>760</v>
-      </c>
-      <c r="L86" s="198" t="s">
-        <v>761</v>
       </c>
       <c r="M86" s="199" t="s">
         <v>30</v>
@@ -23801,7 +24243,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="199"/>
       <c r="N87" s="200" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O87" s="5"/>
       <c r="P87" s="6"/>
@@ -23812,10 +24254,10 @@
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="K88" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L88" s="198" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M88" s="199" t="s">
         <v>26</v>
@@ -23831,16 +24273,16 @@
       <c r="G89" s="6"/>
       <c r="I89" s="76"/>
       <c r="L89" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M89" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N89" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P89" s="12">
         <v>12213213</v>
@@ -23852,24 +24294,24 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="70" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N90" s="12">
         <v>123123213</v>
       </c>
       <c r="O90" s="38" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P90" s="12" t="s">
         <v>1021</v>
-      </c>
-      <c r="P90" s="12" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="4:16" ht="15.75" thickBot="1">
@@ -23884,7 +24326,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="L92" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -23919,10 +24361,10 @@
       <c r="F95" s="10"/>
       <c r="G95" s="9"/>
       <c r="K95" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -23938,10 +24380,10 @@
     </row>
     <row r="97" spans="4:16">
       <c r="K97" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -23972,7 +24414,7 @@
     <row r="105" spans="4:16" ht="15.75" thickBot="1"/>
     <row r="106" spans="4:16">
       <c r="L106" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -23992,52 +24434,52 @@
     </row>
     <row r="108" spans="4:16" ht="15.75" thickBot="1">
       <c r="L108" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="O108" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="O108" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="P108" s="6"/>
     </row>
     <row r="109" spans="4:16">
       <c r="D109" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="3"/>
       <c r="L109" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="O109" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="O109" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="P109" s="6"/>
     </row>
     <row r="110" spans="4:16">
       <c r="D110" s="4"/>
       <c r="E110" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="L110" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="O110" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="O110" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="P110" s="6"/>
     </row>
@@ -24054,10 +24496,10 @@
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="O111" s="38" t="s">
         <v>780</v>
-      </c>
-      <c r="O111" s="38" t="s">
-        <v>781</v>
       </c>
       <c r="P111" s="6"/>
     </row>
@@ -24071,10 +24513,10 @@
       <c r="L112" s="8"/>
       <c r="M112" s="10"/>
       <c r="N112" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="O112" s="38" t="s">
         <v>782</v>
-      </c>
-      <c r="O112" s="38" t="s">
-        <v>783</v>
       </c>
       <c r="P112" s="9"/>
     </row>
@@ -24089,12 +24531,12 @@
     <row r="114" spans="4:16">
       <c r="D114" s="4"/>
       <c r="E114" s="186" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="L114" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -24104,7 +24546,7 @@
     <row r="115" spans="4:16">
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
@@ -24124,15 +24566,15 @@
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="I116" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="5"/>
       <c r="N116" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="O116" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="O116" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="P116" s="6"/>
     </row>
@@ -24142,14 +24584,14 @@
       <c r="F117" s="10"/>
       <c r="G117" s="9"/>
       <c r="L117" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="O117" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="O117" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="P117" s="6"/>
     </row>
@@ -24157,10 +24599,10 @@
       <c r="L118" s="4"/>
       <c r="M118" s="5"/>
       <c r="N118" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="O118" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="O118" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="P118" s="6"/>
     </row>
@@ -24168,10 +24610,10 @@
       <c r="L119" s="4"/>
       <c r="M119" s="5"/>
       <c r="N119" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="O119" s="38" t="s">
         <v>780</v>
-      </c>
-      <c r="O119" s="38" t="s">
-        <v>781</v>
       </c>
       <c r="P119" s="6"/>
     </row>
@@ -24179,10 +24621,10 @@
       <c r="L120" s="4"/>
       <c r="M120" s="5"/>
       <c r="N120" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="O120" s="38" t="s">
         <v>782</v>
-      </c>
-      <c r="O120" s="38" t="s">
-        <v>783</v>
       </c>
       <c r="P120" s="6"/>
     </row>
@@ -24223,14 +24665,14 @@
     </row>
     <row r="129" spans="4:16" ht="15.75" thickBot="1">
       <c r="L129" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="O129" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="O129" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="P129" s="6"/>
     </row>
@@ -24242,33 +24684,33 @@
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
       <c r="L130" s="58" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="O130" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="O130" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="P130" s="6"/>
     </row>
     <row r="131" spans="4:16">
       <c r="D131" s="4"/>
       <c r="E131" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="L131" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="O131" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="O131" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="P131" s="6"/>
     </row>
@@ -24285,10 +24727,10 @@
       </c>
       <c r="M132" s="5"/>
       <c r="N132" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="O132" s="38" t="s">
         <v>780</v>
-      </c>
-      <c r="O132" s="38" t="s">
-        <v>781</v>
       </c>
       <c r="P132" s="6"/>
     </row>
@@ -24300,15 +24742,15 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="I133" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="10"/>
       <c r="N133" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="O133" s="38" t="s">
         <v>782</v>
-      </c>
-      <c r="O133" s="38" t="s">
-        <v>783</v>
       </c>
       <c r="P133" s="9"/>
     </row>
@@ -24323,12 +24765,12 @@
     <row r="135" spans="4:16">
       <c r="D135" s="4"/>
       <c r="E135" s="201" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="L135" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -24338,7 +24780,7 @@
     <row r="136" spans="4:16">
       <c r="D136" s="4"/>
       <c r="E136" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
@@ -24360,10 +24802,10 @@
       <c r="L137" s="4"/>
       <c r="M137" s="5"/>
       <c r="N137" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="O137" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="O137" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="P137" s="6"/>
     </row>
@@ -24373,14 +24815,14 @@
       <c r="F138" s="10"/>
       <c r="G138" s="9"/>
       <c r="L138" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M138" s="5"/>
       <c r="N138" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="O138" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="O138" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="P138" s="6"/>
     </row>
@@ -24388,10 +24830,10 @@
       <c r="L139" s="4"/>
       <c r="M139" s="5"/>
       <c r="N139" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="O139" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="O139" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="P139" s="6"/>
     </row>
@@ -24399,10 +24841,10 @@
       <c r="L140" s="4"/>
       <c r="M140" s="5"/>
       <c r="N140" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="O140" s="38" t="s">
         <v>780</v>
-      </c>
-      <c r="O140" s="38" t="s">
-        <v>781</v>
       </c>
       <c r="P140" s="6"/>
     </row>
@@ -24410,10 +24852,10 @@
       <c r="L141" s="4"/>
       <c r="M141" s="5"/>
       <c r="N141" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="O141" s="38" t="s">
         <v>782</v>
-      </c>
-      <c r="O141" s="38" t="s">
-        <v>783</v>
       </c>
       <c r="P141" s="6"/>
     </row>
